--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197521.673218456</v>
+        <v>1196731.876208314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2662315.17225999</v>
+        <v>2662315.172259988</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1181,10 +1181,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>11.94294668035388</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.5595905131951</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>261.1812720570917</v>
+        <v>250.8669251161151</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>265.5522115154048</v>
       </c>
       <c r="E11" t="n">
-        <v>287.2943490853104</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>306.4661651732875</v>
@@ -1388,7 +1388,7 @@
         <v>220.9589738634737</v>
       </c>
       <c r="I11" t="n">
-        <v>48.75883077809604</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.70879419567368</v>
+        <v>70.70879419567369</v>
       </c>
       <c r="T11" t="n">
         <v>116.4386818640806</v>
       </c>
       <c r="U11" t="n">
-        <v>148.753985211479</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.0659677533743</v>
       </c>
       <c r="W11" t="n">
         <v>255.3660672313312</v>
@@ -1436,7 +1436,7 @@
         <v>274.6663254640778</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.0629232602765</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.17630138789221</v>
+        <v>78.17630138789222</v>
       </c>
       <c r="C13" t="n">
-        <v>64.37629623329242</v>
+        <v>64.37629623329271</v>
       </c>
       <c r="D13" t="n">
-        <v>47.99766063087108</v>
+        <v>47.9976606308711</v>
       </c>
       <c r="E13" t="n">
-        <v>46.94541048665053</v>
+        <v>46.94541048665054</v>
       </c>
       <c r="F13" t="n">
-        <v>47.41233481483684</v>
+        <v>47.41233481483685</v>
       </c>
       <c r="G13" t="n">
-        <v>63.46845096003589</v>
+        <v>63.4684509600359</v>
       </c>
       <c r="H13" t="n">
         <v>52.29197178184316</v>
       </c>
       <c r="I13" t="n">
-        <v>32.64400585370272</v>
+        <v>32.64400585370274</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65460263819536</v>
+        <v>34.65460263819537</v>
       </c>
       <c r="S13" t="n">
         <v>104.2197834836398</v>
@@ -1610,10 +1610,10 @@
         <v>274.5709074708769</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>265.5522115154048</v>
       </c>
       <c r="E14" t="n">
-        <v>287.2943490853104</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>306.4661651732875</v>
@@ -1625,7 +1625,7 @@
         <v>220.9589738634737</v>
       </c>
       <c r="I14" t="n">
-        <v>48.75883077809605</v>
+        <v>48.75883077809604</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.70879419567369</v>
+        <v>70.70879419567368</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5457137032134</v>
+        <v>116.4386818640806</v>
       </c>
       <c r="U14" t="n">
-        <v>148.7539852114791</v>
+        <v>148.753985211479</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.0659677533743</v>
       </c>
       <c r="W14" t="n">
         <v>255.3660672313312</v>
       </c>
       <c r="X14" t="n">
-        <v>274.6663254640778</v>
+        <v>53.44952711974169</v>
       </c>
       <c r="Y14" t="n">
         <v>286.0629232602765</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.17630138789222</v>
+        <v>78.17630138789221</v>
       </c>
       <c r="C16" t="n">
-        <v>64.37629623329271</v>
+        <v>64.37629623329269</v>
       </c>
       <c r="D16" t="n">
-        <v>47.9976606308711</v>
+        <v>47.99766063087108</v>
       </c>
       <c r="E16" t="n">
-        <v>46.94541048665054</v>
+        <v>46.94541048665053</v>
       </c>
       <c r="F16" t="n">
-        <v>47.41233481483685</v>
+        <v>47.41233481483684</v>
       </c>
       <c r="G16" t="n">
-        <v>63.4684509600359</v>
+        <v>63.46845096003588</v>
       </c>
       <c r="H16" t="n">
         <v>52.29197178184316</v>
       </c>
       <c r="I16" t="n">
-        <v>32.64400585370274</v>
+        <v>32.64400585370271</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65460263819538</v>
+        <v>34.65460263819537</v>
       </c>
       <c r="S16" t="n">
         <v>104.2197834836398</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.2515971442847</v>
+        <v>233.2515971442846</v>
       </c>
       <c r="C17" t="n">
-        <v>221.2629141019665</v>
+        <v>221.2629141019664</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2442181464945</v>
+        <v>212.2442181464943</v>
       </c>
       <c r="E17" t="n">
-        <v>233.9863557164</v>
+        <v>233.9863557163999</v>
       </c>
       <c r="F17" t="n">
-        <v>253.1581718043772</v>
+        <v>253.158171804377</v>
       </c>
       <c r="G17" t="n">
-        <v>254.6041384265114</v>
+        <v>254.6041384265113</v>
       </c>
       <c r="H17" t="n">
-        <v>167.6509804945633</v>
+        <v>167.6509804945632</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.40080082676329</v>
+        <v>17.40080082676317</v>
       </c>
       <c r="T17" t="n">
-        <v>63.13068849517021</v>
+        <v>63.1306884951701</v>
       </c>
       <c r="U17" t="n">
-        <v>95.44599184256863</v>
+        <v>95.44599184256853</v>
       </c>
       <c r="V17" t="n">
-        <v>176.7579743844639</v>
+        <v>176.7579743844638</v>
       </c>
       <c r="W17" t="n">
-        <v>202.0580738624208</v>
+        <v>202.0580738624207</v>
       </c>
       <c r="X17" t="n">
-        <v>221.3583320951674</v>
+        <v>221.3583320951673</v>
       </c>
       <c r="Y17" t="n">
-        <v>232.7549298913661</v>
+        <v>232.754929891366</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.86830801898182</v>
+        <v>24.86830801898171</v>
       </c>
       <c r="C19" t="n">
-        <v>11.0683028643823</v>
+        <v>56.81052615013017</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.1604575911255</v>
+        <v>10.16045759112539</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.91179011472942</v>
+        <v>50.91179011472931</v>
       </c>
       <c r="T19" t="n">
-        <v>118.8039191343077</v>
+        <v>73.06169584856063</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4549072330833</v>
+        <v>127.4549072330832</v>
       </c>
       <c r="V19" t="n">
-        <v>101.2764444186074</v>
+        <v>101.2764444186073</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4433304892207</v>
+        <v>126.4433304892206</v>
       </c>
       <c r="X19" t="n">
-        <v>72.08843248502379</v>
+        <v>72.08843248502367</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.96330024109147</v>
+        <v>62.96330024109136</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.2515971442847</v>
+        <v>233.2515971442846</v>
       </c>
       <c r="C20" t="n">
-        <v>221.2629141019665</v>
+        <v>221.2629141019664</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2442181464945</v>
+        <v>212.2442181464943</v>
       </c>
       <c r="E20" t="n">
-        <v>233.9863557164</v>
+        <v>233.9863557163999</v>
       </c>
       <c r="F20" t="n">
-        <v>253.1581718043772</v>
+        <v>253.158171804377</v>
       </c>
       <c r="G20" t="n">
-        <v>254.6041384265114</v>
+        <v>254.6041384265113</v>
       </c>
       <c r="H20" t="n">
-        <v>167.6509804945633</v>
+        <v>167.6509804945632</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.40080082676329</v>
+        <v>17.40080082676317</v>
       </c>
       <c r="T20" t="n">
-        <v>63.13068849517021</v>
+        <v>63.1306884951701</v>
       </c>
       <c r="U20" t="n">
-        <v>95.44599184256865</v>
+        <v>95.44599184256853</v>
       </c>
       <c r="V20" t="n">
-        <v>176.7579743844639</v>
+        <v>176.7579743844638</v>
       </c>
       <c r="W20" t="n">
-        <v>202.0580738624208</v>
+        <v>202.0580738624207</v>
       </c>
       <c r="X20" t="n">
-        <v>221.3583320951674</v>
+        <v>221.3583320951673</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.7549298913661</v>
+        <v>232.7549298913669</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.86830801898182</v>
+        <v>24.86830801898171</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0683028643823</v>
+        <v>11.06830286438219</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.1604575911255</v>
+        <v>10.16045759112539</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.91179011472942</v>
+        <v>50.91179011472931</v>
       </c>
       <c r="T22" t="n">
-        <v>73.06169584856075</v>
+        <v>118.8039191343086</v>
       </c>
       <c r="U22" t="n">
-        <v>127.4549072330833</v>
+        <v>127.4549072330832</v>
       </c>
       <c r="V22" t="n">
-        <v>147.0186677043544</v>
+        <v>101.2764444186073</v>
       </c>
       <c r="W22" t="n">
-        <v>126.4433304892207</v>
+        <v>126.4433304892206</v>
       </c>
       <c r="X22" t="n">
-        <v>72.08843248502379</v>
+        <v>72.08843248502367</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.96330024109147</v>
+        <v>62.96330024109136</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.2515971442847</v>
+        <v>233.2515971442848</v>
       </c>
       <c r="C23" t="n">
         <v>221.2629141019665</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2442181464944</v>
+        <v>212.2442181464945</v>
       </c>
       <c r="E23" t="n">
         <v>233.9863557164</v>
       </c>
       <c r="F23" t="n">
-        <v>253.1581718043771</v>
+        <v>253.1581718043772</v>
       </c>
       <c r="G23" t="n">
         <v>254.6041384265114</v>
       </c>
       <c r="H23" t="n">
-        <v>167.6509804945633</v>
+        <v>167.6509804945634</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.40080082676326</v>
+        <v>17.4008008267633</v>
       </c>
       <c r="T23" t="n">
-        <v>63.13068849517018</v>
+        <v>63.13068849517024</v>
       </c>
       <c r="U23" t="n">
-        <v>95.44599184256862</v>
+        <v>95.44599184256867</v>
       </c>
       <c r="V23" t="n">
-        <v>176.7579743844638</v>
+        <v>176.7579743844639</v>
       </c>
       <c r="W23" t="n">
-        <v>202.0580738624207</v>
+        <v>202.0580738624208</v>
       </c>
       <c r="X23" t="n">
         <v>221.3583320951674</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.7549298913661</v>
+        <v>232.7549298913662</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>96.42038401758047</v>
       </c>
       <c r="I24" t="n">
-        <v>58.72160293807057</v>
+        <v>58.72160293807055</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.99834680865405</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S24" t="n">
         <v>146.428562173185</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.86830801898179</v>
+        <v>24.86830801898185</v>
       </c>
       <c r="C25" t="n">
-        <v>11.06830286438228</v>
+        <v>11.06830286438233</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.16045759112547</v>
+        <v>10.16045759112553</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>45.74222328574724</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.91179011472939</v>
+        <v>50.91179011472944</v>
       </c>
       <c r="T25" t="n">
-        <v>73.06169584856072</v>
+        <v>73.06169584856077</v>
       </c>
       <c r="U25" t="n">
-        <v>127.4549072330833</v>
+        <v>173.1971305188303</v>
       </c>
       <c r="V25" t="n">
         <v>101.2764444186074</v>
       </c>
       <c r="W25" t="n">
-        <v>126.4433304892206</v>
+        <v>126.4433304892207</v>
       </c>
       <c r="X25" t="n">
-        <v>72.08843248502376</v>
+        <v>72.08843248502382</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.96330024109145</v>
+        <v>62.9633002410915</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>274.5709074708769</v>
       </c>
       <c r="D26" t="n">
-        <v>241.6336500986253</v>
+        <v>265.5522115154048</v>
       </c>
       <c r="E26" t="n">
         <v>287.2943490853104</v>
@@ -2567,13 +2567,13 @@
         <v>306.4661651732875</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>307.9121317954218</v>
       </c>
       <c r="H26" t="n">
-        <v>220.9589738634737</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>48.75883077809598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.70879419567365</v>
       </c>
       <c r="T26" t="n">
         <v>116.4386818640806</v>
       </c>
       <c r="U26" t="n">
-        <v>148.753985211479</v>
+        <v>148.4806086423558</v>
       </c>
       <c r="V26" t="n">
-        <v>230.0659677533743</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>255.3660672313312</v>
@@ -2649,10 +2649,10 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H27" t="n">
-        <v>96.42038401758047</v>
+        <v>96.42038401758046</v>
       </c>
       <c r="I27" t="n">
-        <v>58.72160293807057</v>
+        <v>58.72160293807055</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.99834680865404</v>
+        <v>42.99834680865401</v>
       </c>
       <c r="S27" t="n">
         <v>146.428562173185</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.1763013878922</v>
+        <v>78.17630138789221</v>
       </c>
       <c r="C28" t="n">
-        <v>64.37629623329268</v>
+        <v>64.37629623329269</v>
       </c>
       <c r="D28" t="n">
-        <v>47.99766063087107</v>
+        <v>47.99766063087108</v>
       </c>
       <c r="E28" t="n">
-        <v>46.94541048665052</v>
+        <v>46.94541048665053</v>
       </c>
       <c r="F28" t="n">
-        <v>47.41233481483683</v>
+        <v>47.41233481483684</v>
       </c>
       <c r="G28" t="n">
-        <v>63.46845096003587</v>
+        <v>63.46845096003589</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29197178184313</v>
+        <v>52.29197178184315</v>
       </c>
       <c r="I28" t="n">
-        <v>32.6440058537027</v>
+        <v>32.64400585370271</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>125.3964258539342</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.2712936100018</v>
+        <v>116.2712936100019</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>286.5595905131951</v>
       </c>
       <c r="C29" t="n">
-        <v>274.5709074708769</v>
+        <v>207.9328813342345</v>
       </c>
       <c r="D29" t="n">
         <v>265.5522115154048</v>
@@ -2807,10 +2807,10 @@
         <v>307.9121317954218</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>220.9589738634737</v>
       </c>
       <c r="I29" t="n">
-        <v>48.75883077809598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.70879419567365</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>34.85332275306292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>230.0659677533743</v>
@@ -2886,7 +2886,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H30" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I30" t="n">
         <v>58.72160293807055</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S30" t="n">
         <v>146.428562173185</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.3831568023226</v>
+        <v>253.3831568023225</v>
       </c>
       <c r="C32" t="n">
-        <v>241.3944737600043</v>
+        <v>241.3944737600042</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3757778045323</v>
+        <v>232.3757778045322</v>
       </c>
       <c r="E32" t="n">
         <v>254.1179153744378</v>
       </c>
       <c r="F32" t="n">
-        <v>273.289731462415</v>
+        <v>273.2897314624149</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7356980845492</v>
+        <v>274.7356980845491</v>
       </c>
       <c r="H32" t="n">
         <v>187.7825401526011</v>
       </c>
       <c r="I32" t="n">
-        <v>15.58239706722341</v>
+        <v>15.58239706722338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.53236048480107</v>
+        <v>37.53236048480102</v>
       </c>
       <c r="T32" t="n">
-        <v>83.26224815320802</v>
+        <v>83.26224815320796</v>
       </c>
       <c r="U32" t="n">
-        <v>115.5775515006065</v>
+        <v>115.5775515006064</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8895340425017</v>
+        <v>196.8895340425016</v>
       </c>
       <c r="W32" t="n">
-        <v>222.1896335204586</v>
+        <v>222.1896335204585</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4898917532052</v>
+        <v>241.4898917532051</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.886489549404</v>
+        <v>252.8864895494039</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H33" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I33" t="n">
         <v>58.72160293807055</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S33" t="n">
         <v>146.428562173185</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.99986767701964</v>
+        <v>44.99986767701958</v>
       </c>
       <c r="C34" t="n">
-        <v>31.19986252242012</v>
+        <v>31.19986252242006</v>
       </c>
       <c r="D34" t="n">
-        <v>14.82122691999851</v>
+        <v>14.82122691999845</v>
       </c>
       <c r="E34" t="n">
-        <v>13.76897677577796</v>
+        <v>13.7689767757779</v>
       </c>
       <c r="F34" t="n">
-        <v>14.23590110396427</v>
+        <v>14.23590110396421</v>
       </c>
       <c r="G34" t="n">
-        <v>30.29201724916332</v>
+        <v>30.29201724916326</v>
       </c>
       <c r="H34" t="n">
-        <v>19.11553807097057</v>
+        <v>19.11553807097052</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.478168927322768</v>
+        <v>1.478168927322715</v>
       </c>
       <c r="S34" t="n">
-        <v>71.04334977276723</v>
+        <v>71.04334977276717</v>
       </c>
       <c r="T34" t="n">
-        <v>93.19325550659856</v>
+        <v>93.1932555065985</v>
       </c>
       <c r="U34" t="n">
         <v>147.5864668911211</v>
@@ -3247,13 +3247,13 @@
         <v>121.4080040766452</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5748901472585</v>
+        <v>146.5748901472584</v>
       </c>
       <c r="X34" t="n">
-        <v>92.2199921430616</v>
+        <v>92.21999214306155</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.09485989912929</v>
+        <v>83.09485989912923</v>
       </c>
     </row>
     <row r="35">
@@ -3360,7 +3360,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H36" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I36" t="n">
         <v>58.72160293807055</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S36" t="n">
         <v>146.428562173185</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.65401340047599</v>
+        <v>50.9117901147295</v>
       </c>
       <c r="T37" t="n">
-        <v>73.06169584856083</v>
+        <v>118.8039191343072</v>
       </c>
       <c r="U37" t="n">
         <v>127.4549072330834</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.2515971442848</v>
+        <v>233.2515971442847</v>
       </c>
       <c r="C38" t="n">
-        <v>221.2629141019665</v>
+        <v>221.2629141019664</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2442181464945</v>
+        <v>212.2442181464944</v>
       </c>
       <c r="E38" t="n">
-        <v>233.9863557164</v>
+        <v>233.9863557163999</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1581718043772</v>
+        <v>253.1581718043771</v>
       </c>
       <c r="G38" t="n">
-        <v>254.6041384265114</v>
+        <v>254.6041384265113</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6509804945634</v>
+        <v>167.6509804945633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.40080082676329</v>
+        <v>17.40080082676321</v>
       </c>
       <c r="T38" t="n">
-        <v>63.13068849517023</v>
+        <v>63.13068849517015</v>
       </c>
       <c r="U38" t="n">
-        <v>95.44599184256867</v>
+        <v>95.44599184256859</v>
       </c>
       <c r="V38" t="n">
-        <v>176.7579743844639</v>
+        <v>176.7579743844638</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0580738624208</v>
+        <v>202.0580738624207</v>
       </c>
       <c r="X38" t="n">
-        <v>221.3583320951674</v>
+        <v>221.3583320951673</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7549298913662</v>
+        <v>232.7549298913661</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H39" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I39" t="n">
         <v>58.72160293807055</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S39" t="n">
         <v>146.428562173185</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.86830801898185</v>
+        <v>24.86830801898176</v>
       </c>
       <c r="C40" t="n">
-        <v>11.06830286438233</v>
+        <v>11.06830286438225</v>
       </c>
       <c r="D40" t="n">
-        <v>45.74222328574707</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.16045759112553</v>
+        <v>10.16045759112544</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.91179011472944</v>
+        <v>96.65401340047711</v>
       </c>
       <c r="T40" t="n">
-        <v>73.06169584856077</v>
+        <v>73.06169584856069</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4549072330834</v>
+        <v>127.4549072330833</v>
       </c>
       <c r="V40" t="n">
         <v>101.2764444186074</v>
       </c>
       <c r="W40" t="n">
-        <v>126.4433304892207</v>
+        <v>126.4433304892206</v>
       </c>
       <c r="X40" t="n">
-        <v>72.08843248502382</v>
+        <v>72.08843248502373</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.9633002410915</v>
+        <v>62.96330024109142</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>212.2442181464945</v>
       </c>
       <c r="E41" t="n">
-        <v>233.9863557164001</v>
+        <v>233.9863557164</v>
       </c>
       <c r="F41" t="n">
         <v>253.1581718043772</v>
@@ -3755,7 +3755,7 @@
         <v>254.6041384265114</v>
       </c>
       <c r="H41" t="n">
-        <v>167.6509804945622</v>
+        <v>167.6509804945634</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.40080082676332</v>
+        <v>17.40080082676329</v>
       </c>
       <c r="T41" t="n">
-        <v>63.13068849517027</v>
+        <v>63.13068849517023</v>
       </c>
       <c r="U41" t="n">
-        <v>95.4459918425687</v>
+        <v>95.44599184256867</v>
       </c>
       <c r="V41" t="n">
         <v>176.7579743844639</v>
@@ -3834,7 +3834,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H42" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I42" t="n">
         <v>58.72160293807055</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S42" t="n">
         <v>146.428562173185</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.86830801898188</v>
+        <v>24.86830801898185</v>
       </c>
       <c r="C43" t="n">
-        <v>11.06830286438236</v>
+        <v>11.06830286438233</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>45.74222328574679</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.16045759112556</v>
+        <v>55.90268087687249</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.91179011472947</v>
+        <v>50.91179011472944</v>
       </c>
       <c r="T43" t="n">
-        <v>73.0616958485608</v>
+        <v>73.06169584856077</v>
       </c>
       <c r="U43" t="n">
         <v>127.4549072330834</v>
       </c>
       <c r="V43" t="n">
-        <v>101.2764444186075</v>
+        <v>101.2764444186074</v>
       </c>
       <c r="W43" t="n">
         <v>126.4433304892207</v>
       </c>
       <c r="X43" t="n">
-        <v>72.08843248502384</v>
+        <v>72.08843248502382</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.96330024109153</v>
+        <v>62.9633002410915</v>
       </c>
     </row>
     <row r="44">
@@ -4034,7 +4034,7 @@
         <v>95.4459918425687</v>
       </c>
       <c r="V44" t="n">
-        <v>176.7579743844639</v>
+        <v>176.7579743844626</v>
       </c>
       <c r="W44" t="n">
         <v>202.0580738624208</v>
@@ -4071,7 +4071,7 @@
         <v>127.1804858087598</v>
       </c>
       <c r="H45" t="n">
-        <v>96.42038401758046</v>
+        <v>96.42038401758047</v>
       </c>
       <c r="I45" t="n">
         <v>58.72160293807055</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.99834680865401</v>
+        <v>42.99834680865402</v>
       </c>
       <c r="S45" t="n">
         <v>146.428562173185</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.65401340047622</v>
+        <v>50.91179011472947</v>
       </c>
       <c r="T46" t="n">
         <v>73.0616958485608</v>
@@ -4195,7 +4195,7 @@
         <v>101.2764444186075</v>
       </c>
       <c r="W46" t="n">
-        <v>126.4433304892207</v>
+        <v>172.1855537749674</v>
       </c>
       <c r="X46" t="n">
         <v>72.08843248502384</v>
@@ -4802,22 +4802,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L8" t="n">
         <v>12.77895294797866</v>
-      </c>
-      <c r="K8" t="n">
-        <v>24.60247016152901</v>
-      </c>
-      <c r="L8" t="n">
-        <v>24.60247016152901</v>
       </c>
       <c r="M8" t="n">
         <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P8" t="n">
         <v>47.77178672141554</v>
@@ -4829,7 +4829,7 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
         <v>23.64462171059961</v>
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I9" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L9" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M9" t="n">
-        <v>24.60247016152901</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N9" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
         <v>47.77178672141554</v>
@@ -4911,22 +4911,22 @@
         <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>23.64462171059961</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="U9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="X9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="10">
@@ -4945,13 +4945,13 @@
         <v>47.77178672141554</v>
       </c>
       <c r="E10" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="F10" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="G10" t="n">
         <v>37.14618325065221</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.08260074524424</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25.08260074524424</v>
       </c>
       <c r="H10" t="n">
         <v>25.08260074524424</v>
@@ -4963,16 +4963,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M10" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N10" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O10" t="n">
         <v>47.77178672141554</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500.331469431331</v>
+        <v>1418.699837826303</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.512002706997</v>
+        <v>1165.298903365581</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.512002706997</v>
+        <v>897.0643462793132</v>
       </c>
       <c r="E11" t="n">
-        <v>946.3156904996123</v>
+        <v>897.0643462793132</v>
       </c>
       <c r="F11" t="n">
-        <v>636.7539074962915</v>
+        <v>587.5025632759924</v>
       </c>
       <c r="G11" t="n">
-        <v>325.7315521473806</v>
+        <v>276.4802079270816</v>
       </c>
       <c r="H11" t="n">
-        <v>102.5406694570032</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I11" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J11" t="n">
-        <v>166.2333652568749</v>
+        <v>166.2333652568747</v>
       </c>
       <c r="K11" t="n">
-        <v>467.7404214021469</v>
+        <v>467.7404214021468</v>
       </c>
       <c r="L11" t="n">
-        <v>891.7565925271506</v>
+        <v>891.7565925271505</v>
       </c>
       <c r="M11" t="n">
         <v>1369.70594043416</v>
@@ -5060,31 +5060,31 @@
         <v>2517.937183112798</v>
       </c>
       <c r="Q11" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R11" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S11" t="n">
-        <v>2593.043237395133</v>
+        <v>2593.043237395132</v>
       </c>
       <c r="T11" t="n">
-        <v>2475.428407229395</v>
+        <v>2475.428407229394</v>
       </c>
       <c r="U11" t="n">
-        <v>2325.171856510729</v>
+        <v>2475.428407229394</v>
       </c>
       <c r="V11" t="n">
-        <v>2325.171856510729</v>
+        <v>2243.038540811844</v>
       </c>
       <c r="W11" t="n">
-        <v>2067.226334054839</v>
+        <v>1985.093018355954</v>
       </c>
       <c r="X11" t="n">
-        <v>1789.785601262842</v>
+        <v>1707.652285563956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1789.785601262842</v>
+        <v>1418.699837826303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.7276579123383</v>
+        <v>920.727657912338</v>
       </c>
       <c r="C12" t="n">
-        <v>759.023985153293</v>
+        <v>759.0239851532928</v>
       </c>
       <c r="D12" t="n">
-        <v>620.1853481435051</v>
+        <v>620.1853481435048</v>
       </c>
       <c r="E12" t="n">
-        <v>473.1573382003762</v>
+        <v>473.1573382003761</v>
       </c>
       <c r="F12" t="n">
         <v>338.4635401502505</v>
@@ -5115,28 +5115,28 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I12" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9303285322136</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1019035807454</v>
+        <v>324.4609002852361</v>
       </c>
       <c r="L12" t="n">
-        <v>830.969027244096</v>
+        <v>746.3280239485866</v>
       </c>
       <c r="M12" t="n">
-        <v>963.6191583519206</v>
+        <v>1296.763573975411</v>
       </c>
       <c r="N12" t="n">
-        <v>1542.018002523125</v>
+        <v>1875.162418146616</v>
       </c>
       <c r="O12" t="n">
-        <v>1995.63171398645</v>
+        <v>2328.776129609941</v>
       </c>
       <c r="P12" t="n">
-        <v>2347.017590539967</v>
+        <v>2537.738251438926</v>
       </c>
       <c r="Q12" t="n">
         <v>2537.738251438926</v>
@@ -5151,13 +5151,13 @@
         <v>2158.774372386525</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.296906484582</v>
+        <v>1940.296906484581</v>
       </c>
       <c r="V12" t="n">
-        <v>1711.901283932916</v>
+        <v>1711.901283932915</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.585415166226</v>
+        <v>1470.585415166225</v>
       </c>
       <c r="X12" t="n">
         <v>1272.66842704402</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.0126896419898</v>
+        <v>412.0126896419901</v>
       </c>
       <c r="C13" t="n">
         <v>346.9861277901792</v>
@@ -5191,25 +5191,25 @@
         <v>139.0832420402859</v>
       </c>
       <c r="H13" t="n">
-        <v>86.26306852327255</v>
+        <v>86.26306852327264</v>
       </c>
       <c r="I13" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J13" t="n">
-        <v>112.2348343966645</v>
+        <v>112.2348343966643</v>
       </c>
       <c r="K13" t="n">
-        <v>273.4889286034888</v>
+        <v>273.4889286034885</v>
       </c>
       <c r="L13" t="n">
-        <v>508.7769702743311</v>
+        <v>508.7769702743308</v>
       </c>
       <c r="M13" t="n">
-        <v>763.200349868282</v>
+        <v>763.2003498682818</v>
       </c>
       <c r="N13" t="n">
-        <v>1017.245980618243</v>
+        <v>1017.245980618242</v>
       </c>
       <c r="O13" t="n">
         <v>1248.804962361132</v>
@@ -5221,7 +5221,7 @@
         <v>1523.312445640755</v>
       </c>
       <c r="R13" t="n">
-        <v>1488.307796511265</v>
+        <v>1488.307796511264</v>
       </c>
       <c r="S13" t="n">
         <v>1383.035287941931</v>
@@ -5233,16 +5233,16 @@
         <v>1072.800348730351</v>
       </c>
       <c r="V13" t="n">
-        <v>916.6544519752821</v>
+        <v>916.6544519752823</v>
       </c>
       <c r="W13" t="n">
-        <v>735.0874581791901</v>
+        <v>735.0874581791903</v>
       </c>
       <c r="X13" t="n">
-        <v>608.4244017610747</v>
+        <v>608.424401761075</v>
       </c>
       <c r="Y13" t="n">
-        <v>490.9786506398607</v>
+        <v>490.978650639861</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1513.85635368768</v>
+        <v>1491.894598566563</v>
       </c>
       <c r="C14" t="n">
-        <v>1236.512002706997</v>
+        <v>1214.55024758588</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.512002706997</v>
+        <v>946.3156904996123</v>
       </c>
       <c r="E14" t="n">
         <v>946.3156904996123</v>
@@ -5267,61 +5267,61 @@
         <v>636.7539074962915</v>
       </c>
       <c r="G14" t="n">
-        <v>325.7315521473807</v>
+        <v>325.7315521473806</v>
       </c>
       <c r="H14" t="n">
-        <v>102.5406694570032</v>
+        <v>102.5406694570031</v>
       </c>
       <c r="I14" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J14" t="n">
-        <v>166.2333652568749</v>
+        <v>166.233365256875</v>
       </c>
       <c r="K14" t="n">
-        <v>467.7404214021469</v>
+        <v>467.740421402147</v>
       </c>
       <c r="L14" t="n">
-        <v>891.7565925271506</v>
+        <v>891.7565925271509</v>
       </c>
       <c r="M14" t="n">
-        <v>1369.70594043416</v>
+        <v>1369.705940434161</v>
       </c>
       <c r="N14" t="n">
-        <v>1834.118180076726</v>
+        <v>1834.118180076727</v>
       </c>
       <c r="O14" t="n">
         <v>2220.406499468825</v>
       </c>
       <c r="P14" t="n">
-        <v>2517.937183112799</v>
+        <v>2517.937183112798</v>
       </c>
       <c r="Q14" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R14" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S14" t="n">
         <v>2593.043237395133</v>
       </c>
       <c r="T14" t="n">
-        <v>2488.451607391887</v>
+        <v>2475.428407229394</v>
       </c>
       <c r="U14" t="n">
-        <v>2338.195056673222</v>
+        <v>2325.171856510729</v>
       </c>
       <c r="V14" t="n">
-        <v>2338.195056673222</v>
+        <v>2092.781990093179</v>
       </c>
       <c r="W14" t="n">
-        <v>2080.249534217332</v>
+        <v>1834.836467637289</v>
       </c>
       <c r="X14" t="n">
-        <v>1802.808801425334</v>
+        <v>1780.847046304217</v>
       </c>
       <c r="Y14" t="n">
-        <v>1513.85635368768</v>
+        <v>1491.894598566563</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.7276579123383</v>
+        <v>920.727657912338</v>
       </c>
       <c r="C15" t="n">
-        <v>759.023985153293</v>
+        <v>759.0239851532928</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1853481435051</v>
+        <v>620.1853481435048</v>
       </c>
       <c r="E15" t="n">
-        <v>473.1573382003762</v>
+        <v>473.1573382003761</v>
       </c>
       <c r="F15" t="n">
         <v>338.4635401502505</v>
@@ -5352,25 +5352,25 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I15" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J15" t="n">
-        <v>53.28932523670415</v>
+        <v>137.9303285322136</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4609002852361</v>
+        <v>409.1019035807454</v>
       </c>
       <c r="L15" t="n">
-        <v>746.3280239485866</v>
+        <v>830.9690272440961</v>
       </c>
       <c r="M15" t="n">
-        <v>1296.763573975411</v>
+        <v>1381.404577270921</v>
       </c>
       <c r="N15" t="n">
-        <v>1875.162418146616</v>
+        <v>1542.018002523125</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.776129609941</v>
+        <v>1995.63171398645</v>
       </c>
       <c r="P15" t="n">
         <v>2347.017590539967</v>
@@ -5388,13 +5388,13 @@
         <v>2158.774372386525</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.296906484582</v>
+        <v>1940.296906484581</v>
       </c>
       <c r="V15" t="n">
-        <v>1711.901283932916</v>
+        <v>1711.901283932915</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.585415166226</v>
+        <v>1470.585415166225</v>
       </c>
       <c r="X15" t="n">
         <v>1272.66842704402</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.0126896419899</v>
+        <v>412.0126896419903</v>
       </c>
       <c r="C16" t="n">
-        <v>346.9861277901791</v>
+        <v>346.9861277901795</v>
       </c>
       <c r="D16" t="n">
-        <v>298.5036423044508</v>
+        <v>298.5036423044511</v>
       </c>
       <c r="E16" t="n">
-        <v>251.0840357522785</v>
+        <v>251.0840357522789</v>
       </c>
       <c r="F16" t="n">
-        <v>203.1927884645645</v>
+        <v>203.1927884645649</v>
       </c>
       <c r="G16" t="n">
         <v>139.0832420402862</v>
       </c>
       <c r="H16" t="n">
-        <v>86.26306852327286</v>
+        <v>86.26306852327292</v>
       </c>
       <c r="I16" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J16" t="n">
-        <v>112.2348343966643</v>
+        <v>112.2348343966644</v>
       </c>
       <c r="K16" t="n">
-        <v>273.4889286034886</v>
+        <v>273.4889286034887</v>
       </c>
       <c r="L16" t="n">
-        <v>508.7769702743309</v>
+        <v>508.7769702743311</v>
       </c>
       <c r="M16" t="n">
-        <v>763.2003498682818</v>
+        <v>763.200349868282</v>
       </c>
       <c r="N16" t="n">
         <v>1017.245980618243</v>
@@ -5461,7 +5461,7 @@
         <v>1488.307796511265</v>
       </c>
       <c r="S16" t="n">
-        <v>1383.035287941932</v>
+        <v>1383.035287941931</v>
       </c>
       <c r="T16" t="n">
         <v>1255.389137217213</v>
@@ -5470,16 +5470,16 @@
         <v>1072.800348730351</v>
       </c>
       <c r="V16" t="n">
-        <v>916.6544519752823</v>
+        <v>916.6544519752825</v>
       </c>
       <c r="W16" t="n">
-        <v>735.0874581791903</v>
+        <v>735.0874581791905</v>
       </c>
       <c r="X16" t="n">
-        <v>608.4244017610749</v>
+        <v>608.4244017610753</v>
       </c>
       <c r="Y16" t="n">
-        <v>490.9786506398609</v>
+        <v>490.9786506398613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1409.760818863282</v>
+        <v>1409.760818863283</v>
       </c>
       <c r="C17" t="n">
-        <v>1186.262925830993</v>
+        <v>1186.262925830994</v>
       </c>
       <c r="D17" t="n">
-        <v>971.8748266931198</v>
+        <v>971.8748266931211</v>
       </c>
       <c r="E17" t="n">
-        <v>735.5249724341302</v>
+        <v>735.5249724341313</v>
       </c>
       <c r="F17" t="n">
-        <v>479.8096473792038</v>
+        <v>479.809647379205</v>
       </c>
       <c r="G17" t="n">
-        <v>222.6337499786873</v>
+        <v>222.6337499786872</v>
       </c>
       <c r="H17" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I17" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J17" t="n">
-        <v>166.2333652568759</v>
+        <v>166.2333652568749</v>
       </c>
       <c r="K17" t="n">
-        <v>467.7404214021478</v>
+        <v>467.7404214021469</v>
       </c>
       <c r="L17" t="n">
-        <v>891.7565925271515</v>
+        <v>891.7565925271506</v>
       </c>
       <c r="M17" t="n">
-        <v>1369.705940434161</v>
+        <v>1369.70594043416</v>
       </c>
       <c r="N17" t="n">
-        <v>1834.118180076727</v>
+        <v>1834.118180076726</v>
       </c>
       <c r="O17" t="n">
-        <v>2220.406499468825</v>
+        <v>2220.406499468824</v>
       </c>
       <c r="P17" t="n">
-        <v>2517.937183112799</v>
+        <v>2517.937183112798</v>
       </c>
       <c r="Q17" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R17" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S17" t="n">
-        <v>2646.889695343528</v>
+        <v>2646.889695343527</v>
       </c>
       <c r="T17" t="n">
-        <v>2583.121323126184</v>
+        <v>2583.121323126183</v>
       </c>
       <c r="U17" t="n">
         <v>2486.711230355912</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.167821886756</v>
+        <v>2308.167821886757</v>
       </c>
       <c r="W17" t="n">
-        <v>2104.06875737926</v>
+        <v>2104.068757379261</v>
       </c>
       <c r="X17" t="n">
-        <v>1880.474482535657</v>
+        <v>1880.474482535658</v>
       </c>
       <c r="Y17" t="n">
-        <v>1645.368492746398</v>
+        <v>1645.368492746399</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.7276579123383</v>
+        <v>920.727657912338</v>
       </c>
       <c r="C18" t="n">
-        <v>759.023985153293</v>
+        <v>759.0239851532928</v>
       </c>
       <c r="D18" t="n">
-        <v>620.1853481435051</v>
+        <v>620.1853481435048</v>
       </c>
       <c r="E18" t="n">
-        <v>473.1573382003762</v>
+        <v>473.1573382003761</v>
       </c>
       <c r="F18" t="n">
         <v>338.4635401502505</v>
@@ -5589,10 +5589,10 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I18" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J18" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K18" t="n">
         <v>324.4609002852361</v>
@@ -5625,13 +5625,13 @@
         <v>2158.774372386525</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.296906484582</v>
+        <v>1940.296906484581</v>
       </c>
       <c r="V18" t="n">
-        <v>1711.901283932916</v>
+        <v>1711.901283932915</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.585415166226</v>
+        <v>1470.585415166225</v>
       </c>
       <c r="X18" t="n">
         <v>1272.66842704402</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.73251761600497</v>
+        <v>120.9367835612047</v>
       </c>
       <c r="C19" t="n">
-        <v>63.5524137125885</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="D19" t="n">
-        <v>63.5524137125885</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="E19" t="n">
-        <v>63.5524137125885</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="F19" t="n">
-        <v>63.5524137125885</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="G19" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="H19" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I19" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J19" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K19" t="n">
         <v>112.0353409699811</v>
@@ -5683,40 +5683,40 @@
         <v>396.7306052876797</v>
       </c>
       <c r="N19" t="n">
-        <v>548.268157564093</v>
+        <v>548.2681575640929</v>
       </c>
       <c r="O19" t="n">
-        <v>677.3190608334348</v>
+        <v>677.3190608334347</v>
       </c>
       <c r="P19" t="n">
-        <v>766.4602268433239</v>
+        <v>766.4602268433238</v>
       </c>
       <c r="Q19" t="n">
-        <v>766.4602268433239</v>
+        <v>766.4602268433238</v>
       </c>
       <c r="R19" t="n">
-        <v>766.4602268433239</v>
+        <v>766.4602268433238</v>
       </c>
       <c r="S19" t="n">
         <v>715.0341762223851</v>
       </c>
       <c r="T19" t="n">
-        <v>595.0302175008621</v>
+        <v>641.2344834460612</v>
       </c>
       <c r="U19" t="n">
-        <v>466.2878869623941</v>
+        <v>512.4921529075932</v>
       </c>
       <c r="V19" t="n">
-        <v>363.9884481557199</v>
+        <v>410.1927141009191</v>
       </c>
       <c r="W19" t="n">
-        <v>236.2679123080222</v>
+        <v>282.4721782532216</v>
       </c>
       <c r="X19" t="n">
-        <v>163.4513138383012</v>
+        <v>209.6555797835007</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.85202066548156</v>
+        <v>146.0562866106812</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1186.262925830993</v>
       </c>
       <c r="D20" t="n">
-        <v>971.8748266931201</v>
+        <v>971.8748266931202</v>
       </c>
       <c r="E20" t="n">
-        <v>735.5249724341302</v>
+        <v>735.5249724341301</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8096473792038</v>
+        <v>479.8096473792036</v>
       </c>
       <c r="G20" t="n">
-        <v>222.6337499786873</v>
+        <v>222.6337499786872</v>
       </c>
       <c r="H20" t="n">
         <v>53.28932523670414</v>
@@ -5750,13 +5750,13 @@
         <v>53.28932523670414</v>
       </c>
       <c r="J20" t="n">
-        <v>166.233365256875</v>
+        <v>166.2333652568748</v>
       </c>
       <c r="K20" t="n">
-        <v>467.7404214021469</v>
+        <v>467.7404214021468</v>
       </c>
       <c r="L20" t="n">
-        <v>891.7565925271508</v>
+        <v>891.7565925271505</v>
       </c>
       <c r="M20" t="n">
         <v>1369.70594043416</v>
@@ -5768,7 +5768,7 @@
         <v>2220.406499468824</v>
       </c>
       <c r="P20" t="n">
-        <v>2517.937183112799</v>
+        <v>2517.937183112798</v>
       </c>
       <c r="Q20" t="n">
         <v>2664.466261835207</v>
@@ -5792,7 +5792,7 @@
         <v>2104.068757379261</v>
       </c>
       <c r="X20" t="n">
-        <v>1880.474482535657</v>
+        <v>1880.474482535658</v>
       </c>
       <c r="Y20" t="n">
         <v>1645.368492746398</v>
@@ -5835,19 +5835,19 @@
         <v>409.1019035807454</v>
       </c>
       <c r="L21" t="n">
-        <v>830.969027244096</v>
+        <v>830.9690272440961</v>
       </c>
       <c r="M21" t="n">
         <v>1381.404577270921</v>
       </c>
       <c r="N21" t="n">
-        <v>1732.738663422084</v>
+        <v>1542.018002523125</v>
       </c>
       <c r="O21" t="n">
-        <v>2186.352374885409</v>
+        <v>1995.63171398645</v>
       </c>
       <c r="P21" t="n">
-        <v>2537.738251438926</v>
+        <v>2347.017590539967</v>
       </c>
       <c r="Q21" t="n">
         <v>2537.738251438926</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.73251761600496</v>
+        <v>74.73251761600473</v>
       </c>
       <c r="C22" t="n">
-        <v>63.55241371258849</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="D22" t="n">
-        <v>63.55241371258849</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="E22" t="n">
-        <v>63.55241371258849</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="F22" t="n">
-        <v>63.55241371258849</v>
+        <v>63.55241371258837</v>
       </c>
       <c r="G22" t="n">
         <v>53.28932523670414</v>
@@ -5935,25 +5935,25 @@
         <v>766.4602268433238</v>
       </c>
       <c r="S22" t="n">
-        <v>715.034176222385</v>
+        <v>715.0341762223851</v>
       </c>
       <c r="T22" t="n">
-        <v>641.2344834460609</v>
+        <v>595.0302175008612</v>
       </c>
       <c r="U22" t="n">
-        <v>512.492152907593</v>
+        <v>466.2878869623933</v>
       </c>
       <c r="V22" t="n">
-        <v>363.9884481557199</v>
+        <v>363.9884481557192</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2679123080222</v>
+        <v>236.2679123080217</v>
       </c>
       <c r="X22" t="n">
-        <v>163.4513138383012</v>
+        <v>163.4513138383008</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.85202066548155</v>
+        <v>99.85202066548121</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.760818863283</v>
+        <v>1409.760818863284</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.262925830994</v>
+        <v>1186.262925830995</v>
       </c>
       <c r="D23" t="n">
-        <v>971.8748266931204</v>
+        <v>971.8748266931216</v>
       </c>
       <c r="E23" t="n">
-        <v>735.5249724341306</v>
+        <v>735.5249724341317</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8096473792043</v>
+        <v>479.8096473792052</v>
       </c>
       <c r="G23" t="n">
-        <v>222.6337499786873</v>
+        <v>222.6337499786874</v>
       </c>
       <c r="H23" t="n">
-        <v>53.28932523670414</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="I23" t="n">
-        <v>53.28932523670414</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="J23" t="n">
         <v>166.233365256875</v>
       </c>
       <c r="K23" t="n">
-        <v>467.7404214021469</v>
+        <v>467.7404214021471</v>
       </c>
       <c r="L23" t="n">
-        <v>891.7565925271508</v>
+        <v>891.756592527151</v>
       </c>
       <c r="M23" t="n">
-        <v>1369.70594043416</v>
+        <v>1369.705940434161</v>
       </c>
       <c r="N23" t="n">
-        <v>1834.118180076726</v>
+        <v>1834.118180076727</v>
       </c>
       <c r="O23" t="n">
-        <v>2220.406499468824</v>
+        <v>2220.406499468825</v>
       </c>
       <c r="P23" t="n">
-        <v>2517.937183112799</v>
+        <v>2517.9371831128</v>
       </c>
       <c r="Q23" t="n">
-        <v>2664.466261835207</v>
+        <v>2664.466261835208</v>
       </c>
       <c r="R23" t="n">
-        <v>2664.466261835207</v>
+        <v>2664.466261835208</v>
       </c>
       <c r="S23" t="n">
-        <v>2646.889695343527</v>
+        <v>2646.889695343528</v>
       </c>
       <c r="T23" t="n">
-        <v>2583.121323126184</v>
+        <v>2583.121323126185</v>
       </c>
       <c r="U23" t="n">
-        <v>2486.711230355912</v>
+        <v>2486.711230355914</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.167821886757</v>
+        <v>2308.167821886758</v>
       </c>
       <c r="W23" t="n">
         <v>2104.068757379262</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.474482535658</v>
+        <v>1880.474482535659</v>
       </c>
       <c r="Y23" t="n">
-        <v>1645.368492746399</v>
+        <v>1645.3684927464</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I24" t="n">
-        <v>53.28932523670414</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9303285322136</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1019035807454</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="L24" t="n">
-        <v>830.969027244096</v>
+        <v>475.1564489000548</v>
       </c>
       <c r="M24" t="n">
-        <v>1381.404577270921</v>
+        <v>1025.591998926879</v>
       </c>
       <c r="N24" t="n">
-        <v>1732.738663422084</v>
+        <v>1603.990843098084</v>
       </c>
       <c r="O24" t="n">
-        <v>2186.352374885409</v>
+        <v>2057.604554561409</v>
       </c>
       <c r="P24" t="n">
-        <v>2537.738251438926</v>
+        <v>2408.990431114926</v>
       </c>
       <c r="Q24" t="n">
         <v>2537.738251438926</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.9367835612041</v>
+        <v>74.73251761600504</v>
       </c>
       <c r="C25" t="n">
-        <v>109.7566796577877</v>
+        <v>63.55241371258854</v>
       </c>
       <c r="D25" t="n">
-        <v>109.7566796577877</v>
+        <v>63.55241371258854</v>
       </c>
       <c r="E25" t="n">
-        <v>109.7566796577877</v>
+        <v>63.55241371258854</v>
       </c>
       <c r="F25" t="n">
-        <v>109.7566796577877</v>
+        <v>63.55241371258854</v>
       </c>
       <c r="G25" t="n">
-        <v>99.49359118190338</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="H25" t="n">
-        <v>99.49359118190338</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="I25" t="n">
-        <v>53.28932523670414</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="J25" t="n">
-        <v>53.28932523670414</v>
+        <v>53.28932523670417</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0353409699811</v>
+        <v>112.0353409699812</v>
       </c>
       <c r="L25" t="n">
-        <v>244.8153041672761</v>
+        <v>244.8153041672762</v>
       </c>
       <c r="M25" t="n">
-        <v>396.7306052876797</v>
+        <v>396.7306052876799</v>
       </c>
       <c r="N25" t="n">
-        <v>548.2681575640929</v>
+        <v>548.2681575640931</v>
       </c>
       <c r="O25" t="n">
-        <v>677.3190608334347</v>
+        <v>677.3190608334351</v>
       </c>
       <c r="P25" t="n">
-        <v>766.4602268433238</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="Q25" t="n">
-        <v>766.4602268433238</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="R25" t="n">
-        <v>766.4602268433238</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="S25" t="n">
-        <v>715.034176222385</v>
+        <v>715.0341762223853</v>
       </c>
       <c r="T25" t="n">
-        <v>641.2344834460611</v>
+        <v>641.2344834460613</v>
       </c>
       <c r="U25" t="n">
-        <v>512.4921529075931</v>
+        <v>466.2878869623943</v>
       </c>
       <c r="V25" t="n">
-        <v>410.192714100919</v>
+        <v>363.9884481557201</v>
       </c>
       <c r="W25" t="n">
-        <v>282.4721782532213</v>
+        <v>236.2679123080224</v>
       </c>
       <c r="X25" t="n">
-        <v>209.6555797835003</v>
+        <v>163.4513138383014</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.0562866106807</v>
+        <v>99.85202066548166</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1404.743678125676</v>
+        <v>1565.98665805176</v>
       </c>
       <c r="C26" t="n">
-        <v>1127.399327144992</v>
+        <v>1288.642307071076</v>
       </c>
       <c r="D26" t="n">
-        <v>883.324933105976</v>
+        <v>1020.407749984809</v>
       </c>
       <c r="E26" t="n">
-        <v>593.1286208985919</v>
+        <v>730.2114377774243</v>
       </c>
       <c r="F26" t="n">
-        <v>283.5668378952711</v>
+        <v>420.6496547741035</v>
       </c>
       <c r="G26" t="n">
-        <v>283.5668378952711</v>
+        <v>109.6272994251926</v>
       </c>
       <c r="H26" t="n">
-        <v>60.37595520489361</v>
+        <v>109.6272994251926</v>
       </c>
       <c r="I26" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J26" t="n">
-        <v>173.3199952250644</v>
+        <v>173.3199952250645</v>
       </c>
       <c r="K26" t="n">
-        <v>474.8270513703364</v>
+        <v>474.8270513703366</v>
       </c>
       <c r="L26" t="n">
-        <v>898.8432224953401</v>
+        <v>1001.351300968888</v>
       </c>
       <c r="M26" t="n">
-        <v>1376.79257040235</v>
+        <v>1479.300648875898</v>
       </c>
       <c r="N26" t="n">
-        <v>1939.455693321782</v>
+        <v>2046.220966992011</v>
       </c>
       <c r="O26" t="n">
-        <v>2428.252091187427</v>
+        <v>2432.509286384109</v>
       </c>
       <c r="P26" t="n">
-        <v>2828.290853304949</v>
+        <v>2730.039970028083</v>
       </c>
       <c r="Q26" t="n">
-        <v>2974.819932027357</v>
+        <v>2979.077127224039</v>
       </c>
       <c r="R26" t="n">
-        <v>3018.79776024468</v>
+        <v>3018.797760244679</v>
       </c>
       <c r="S26" t="n">
-        <v>3018.79776024468</v>
+        <v>2947.374735804605</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.182930078942</v>
+        <v>2829.759905638868</v>
       </c>
       <c r="U26" t="n">
-        <v>2750.926379360277</v>
+        <v>2679.779492868811</v>
       </c>
       <c r="V26" t="n">
-        <v>2518.536512942727</v>
+        <v>2679.779492868811</v>
       </c>
       <c r="W26" t="n">
-        <v>2260.590990486837</v>
+        <v>2421.833970412921</v>
       </c>
       <c r="X26" t="n">
-        <v>1983.150257694839</v>
+        <v>2144.393237620923</v>
       </c>
       <c r="Y26" t="n">
-        <v>1694.197809957186</v>
+        <v>1855.44078988327</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>627.2719781116944</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2439681685656</v>
+        <v>480.2439681685655</v>
       </c>
       <c r="F27" t="n">
-        <v>345.55017011844</v>
+        <v>345.5501701184399</v>
       </c>
       <c r="G27" t="n">
-        <v>217.0850329378745</v>
+        <v>217.0850329378744</v>
       </c>
       <c r="H27" t="n">
         <v>119.6907056473891</v>
       </c>
       <c r="I27" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J27" t="n">
-        <v>145.016958500403</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="K27" t="n">
-        <v>416.188533548935</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="L27" t="n">
-        <v>838.0556572122856</v>
+        <v>482.2430788682444</v>
       </c>
       <c r="M27" t="n">
-        <v>1388.49120723911</v>
+        <v>1032.678628895069</v>
       </c>
       <c r="N27" t="n">
-        <v>1739.825293390273</v>
+        <v>1611.077473066274</v>
       </c>
       <c r="O27" t="n">
-        <v>2193.439004853598</v>
+        <v>2064.691184529599</v>
       </c>
       <c r="P27" t="n">
-        <v>2544.824881407115</v>
+        <v>2416.077061083116</v>
       </c>
       <c r="Q27" t="n">
         <v>2544.824881407115</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>419.0993196101792</v>
+        <v>419.0993196101794</v>
       </c>
       <c r="C28" t="n">
         <v>354.0727577583685</v>
       </c>
       <c r="D28" t="n">
-        <v>305.5902722726401</v>
+        <v>305.5902722726402</v>
       </c>
       <c r="E28" t="n">
         <v>258.1706657204679</v>
@@ -6376,28 +6376,28 @@
         <v>146.1698720084753</v>
       </c>
       <c r="H28" t="n">
-        <v>93.34969849146199</v>
+        <v>93.34969849146205</v>
       </c>
       <c r="I28" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J28" t="n">
         <v>119.3214643648538</v>
       </c>
       <c r="K28" t="n">
-        <v>280.5755585716781</v>
+        <v>280.5755585716784</v>
       </c>
       <c r="L28" t="n">
-        <v>515.8636002425205</v>
+        <v>515.8636002425208</v>
       </c>
       <c r="M28" t="n">
-        <v>770.2869798364716</v>
+        <v>770.2869798364718</v>
       </c>
       <c r="N28" t="n">
-        <v>1024.332610586432</v>
+        <v>1024.332610586433</v>
       </c>
       <c r="O28" t="n">
-        <v>1255.891592329321</v>
+        <v>1255.891592329322</v>
       </c>
       <c r="P28" t="n">
         <v>1447.540836812758</v>
@@ -6418,16 +6418,16 @@
         <v>1079.88697869854</v>
       </c>
       <c r="V28" t="n">
-        <v>923.7410819434715</v>
+        <v>923.7410819434716</v>
       </c>
       <c r="W28" t="n">
-        <v>742.1740881473795</v>
+        <v>742.1740881473796</v>
       </c>
       <c r="X28" t="n">
-        <v>615.5110317292641</v>
+        <v>615.5110317292642</v>
       </c>
       <c r="Y28" t="n">
-        <v>498.0652806080502</v>
+        <v>498.0652806080503</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1565.98665805176</v>
+        <v>1672.615059010079</v>
       </c>
       <c r="C29" t="n">
-        <v>1288.642307071076</v>
+        <v>1462.581845541155</v>
       </c>
       <c r="D29" t="n">
-        <v>1020.407749984809</v>
+        <v>1194.347288454887</v>
       </c>
       <c r="E29" t="n">
-        <v>730.2114377774243</v>
+        <v>904.1509762475031</v>
       </c>
       <c r="F29" t="n">
-        <v>420.6496547741035</v>
+        <v>594.5891932441823</v>
       </c>
       <c r="G29" t="n">
-        <v>109.6272994251926</v>
+        <v>283.5668378952711</v>
       </c>
       <c r="H29" t="n">
-        <v>109.6272994251926</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="I29" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J29" t="n">
-        <v>173.3199952250645</v>
+        <v>275.8280736986119</v>
       </c>
       <c r="K29" t="n">
-        <v>474.8270513703367</v>
+        <v>577.335129843884</v>
       </c>
       <c r="L29" t="n">
-        <v>1001.351300968888</v>
+        <v>1103.859379442435</v>
       </c>
       <c r="M29" t="n">
         <v>1581.808727349445</v>
       </c>
       <c r="N29" t="n">
-        <v>2148.729045465559</v>
+        <v>2046.220966992011</v>
       </c>
       <c r="O29" t="n">
-        <v>2574.737997878298</v>
+        <v>2432.509286384109</v>
       </c>
       <c r="P29" t="n">
-        <v>2872.268681522272</v>
+        <v>2730.039970028083</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.79776024468</v>
+        <v>2979.077127224039</v>
       </c>
       <c r="R29" t="n">
-        <v>3018.79776024468</v>
+        <v>3018.797760244679</v>
       </c>
       <c r="S29" t="n">
-        <v>2947.374735804607</v>
+        <v>3018.797760244679</v>
       </c>
       <c r="T29" t="n">
-        <v>2947.374735804607</v>
+        <v>3018.797760244679</v>
       </c>
       <c r="U29" t="n">
-        <v>2912.169359286361</v>
+        <v>3018.797760244679</v>
       </c>
       <c r="V29" t="n">
-        <v>2679.779492868811</v>
+        <v>2786.40789382713</v>
       </c>
       <c r="W29" t="n">
-        <v>2421.833970412921</v>
+        <v>2528.462371371239</v>
       </c>
       <c r="X29" t="n">
-        <v>2144.393237620923</v>
+        <v>2251.021638579242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1855.44078988327</v>
+        <v>1962.069190841589</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>119.6907056473891</v>
       </c>
       <c r="I30" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J30" t="n">
-        <v>145.0169585004031</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="K30" t="n">
-        <v>416.1885335489351</v>
+        <v>331.5475302534256</v>
       </c>
       <c r="L30" t="n">
-        <v>838.0556572122858</v>
+        <v>753.4146539167763</v>
       </c>
       <c r="M30" t="n">
-        <v>1388.49120723911</v>
+        <v>970.7057883201096</v>
       </c>
       <c r="N30" t="n">
         <v>1549.104632491315</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.0993196101796</v>
+        <v>419.0993196101794</v>
       </c>
       <c r="C31" t="n">
-        <v>354.0727577583688</v>
+        <v>354.0727577583685</v>
       </c>
       <c r="D31" t="n">
-        <v>305.5902722726404</v>
+        <v>305.5902722726402</v>
       </c>
       <c r="E31" t="n">
-        <v>258.1706657204682</v>
+        <v>258.1706657204679</v>
       </c>
       <c r="F31" t="n">
-        <v>210.2794184327542</v>
+        <v>210.279418432754</v>
       </c>
       <c r="G31" t="n">
-        <v>146.1698720084755</v>
+        <v>146.1698720084753</v>
       </c>
       <c r="H31" t="n">
-        <v>93.34969849146199</v>
+        <v>93.34969849146228</v>
       </c>
       <c r="I31" t="n">
-        <v>60.37595520489361</v>
+        <v>60.37595520489359</v>
       </c>
       <c r="J31" t="n">
         <v>119.3214643648538</v>
       </c>
       <c r="K31" t="n">
-        <v>280.5755585716782</v>
+        <v>280.5755585716785</v>
       </c>
       <c r="L31" t="n">
-        <v>515.8636002425205</v>
+        <v>515.8636002425209</v>
       </c>
       <c r="M31" t="n">
-        <v>770.2869798364716</v>
+        <v>770.286979836472</v>
       </c>
       <c r="N31" t="n">
-        <v>1024.332610586433</v>
+        <v>1024.332610586432</v>
       </c>
       <c r="O31" t="n">
         <v>1255.891592329322</v>
@@ -6655,16 +6655,16 @@
         <v>1079.88697869854</v>
       </c>
       <c r="V31" t="n">
-        <v>923.7410819434718</v>
+        <v>923.7410819434716</v>
       </c>
       <c r="W31" t="n">
-        <v>742.1740881473798</v>
+        <v>742.1740881473796</v>
       </c>
       <c r="X31" t="n">
-        <v>615.5110317292645</v>
+        <v>615.5110317292642</v>
       </c>
       <c r="Y31" t="n">
-        <v>498.0652806080505</v>
+        <v>498.0652806080503</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1553.641260587399</v>
+        <v>1553.641260587398</v>
       </c>
       <c r="C32" t="n">
-        <v>1309.808458809617</v>
+        <v>1309.808458809616</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.085450926251</v>
+        <v>1075.08545092625</v>
       </c>
       <c r="E32" t="n">
-        <v>818.4006879217679</v>
+        <v>818.4006879217675</v>
       </c>
       <c r="F32" t="n">
-        <v>542.3504541213488</v>
+        <v>542.3504541213483</v>
       </c>
       <c r="G32" t="n">
         <v>264.8396479753385</v>
       </c>
       <c r="H32" t="n">
-        <v>75.16031448786269</v>
+        <v>75.16031448786264</v>
       </c>
       <c r="I32" t="n">
-        <v>59.4205194704653</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="J32" t="n">
-        <v>202.0875812503099</v>
+        <v>172.3645594906362</v>
       </c>
       <c r="K32" t="n">
-        <v>638.9473852428933</v>
+        <v>503.5946373955812</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.316304215208</v>
+        <v>927.610808520585</v>
       </c>
       <c r="M32" t="n">
-        <v>1676.265652122218</v>
+        <v>1540.912904274906</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.677891764784</v>
+        <v>2140.677891764783</v>
       </c>
       <c r="O32" t="n">
-        <v>2526.966211156882</v>
+        <v>2526.966211156881</v>
       </c>
       <c r="P32" t="n">
-        <v>2824.496894800856</v>
+        <v>2824.496894800855</v>
       </c>
       <c r="Q32" t="n">
-        <v>2971.025973523265</v>
+        <v>2971.025973523264</v>
       </c>
       <c r="R32" t="n">
-        <v>2971.025973523265</v>
+        <v>2971.025973523264</v>
       </c>
       <c r="S32" t="n">
-        <v>2933.114498286092</v>
+        <v>2933.114498286091</v>
       </c>
       <c r="T32" t="n">
-        <v>2849.011217323256</v>
+        <v>2849.011217323255</v>
       </c>
       <c r="U32" t="n">
-        <v>2732.266215807492</v>
+        <v>2732.266215807491</v>
       </c>
       <c r="V32" t="n">
-        <v>2533.387898592844</v>
+        <v>2533.387898592843</v>
       </c>
       <c r="W32" t="n">
-        <v>2308.953925339855</v>
+        <v>2308.953925339854</v>
       </c>
       <c r="X32" t="n">
-        <v>2065.024741750759</v>
+        <v>2065.024741750758</v>
       </c>
       <c r="Y32" t="n">
         <v>1809.583843216007</v>
@@ -6774,28 +6774,28 @@
         <v>118.7352699129608</v>
       </c>
       <c r="I33" t="n">
-        <v>59.4205194704653</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="J33" t="n">
-        <v>144.0615227659748</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2330978145068</v>
+        <v>188.1683397944648</v>
       </c>
       <c r="L33" t="n">
-        <v>837.1002214778575</v>
+        <v>610.0354634578155</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.535771504682</v>
+        <v>1160.47101348464</v>
       </c>
       <c r="N33" t="n">
-        <v>1548.149196756886</v>
+        <v>1738.869857655845</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.762908220212</v>
+        <v>2192.48356911917</v>
       </c>
       <c r="P33" t="n">
-        <v>2353.148784773728</v>
+        <v>2543.869445672687</v>
       </c>
       <c r="Q33" t="n">
         <v>2543.869445672687</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.1008453717731</v>
+        <v>184.1008453717728</v>
       </c>
       <c r="C34" t="n">
-        <v>152.5858327228639</v>
+        <v>152.5858327228636</v>
       </c>
       <c r="D34" t="n">
-        <v>137.6148964400371</v>
+        <v>137.6148964400369</v>
       </c>
       <c r="E34" t="n">
-        <v>123.7068390907665</v>
+        <v>123.7068390907663</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3271410059541</v>
+        <v>109.3271410059539</v>
       </c>
       <c r="G34" t="n">
-        <v>78.72914378457699</v>
+        <v>78.72914378457691</v>
       </c>
       <c r="H34" t="n">
-        <v>59.4205194704653</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="I34" t="n">
-        <v>59.94762304906347</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="J34" t="n">
-        <v>59.94762304906347</v>
+        <v>59.42051947046528</v>
       </c>
       <c r="K34" t="n">
-        <v>223.6688645011305</v>
+        <v>204.0190248237686</v>
       </c>
       <c r="L34" t="n">
-        <v>356.4488276984256</v>
+        <v>472.1517358683749</v>
       </c>
       <c r="M34" t="n">
-        <v>508.3641288188293</v>
+        <v>624.0670369887786</v>
       </c>
       <c r="N34" t="n">
-        <v>659.9016810952426</v>
+        <v>775.6045892651919</v>
       </c>
       <c r="O34" t="n">
-        <v>788.9525843645845</v>
+        <v>904.6554925345338</v>
       </c>
       <c r="P34" t="n">
-        <v>878.0937503744735</v>
+        <v>993.7966585444228</v>
       </c>
       <c r="Q34" t="n">
-        <v>993.7966585444237</v>
+        <v>993.7966585444228</v>
       </c>
       <c r="R34" t="n">
-        <v>992.3035586178351</v>
+        <v>992.3035586178343</v>
       </c>
       <c r="S34" t="n">
-        <v>920.5425992514035</v>
+        <v>920.5425992514027</v>
       </c>
       <c r="T34" t="n">
-        <v>826.4079977295868</v>
+        <v>826.4079977295861</v>
       </c>
       <c r="U34" t="n">
-        <v>677.330758445626</v>
+        <v>677.3307584456254</v>
       </c>
       <c r="V34" t="n">
-        <v>554.6964108934591</v>
+        <v>554.6964108934585</v>
       </c>
       <c r="W34" t="n">
-        <v>406.6409663002687</v>
+        <v>406.6409663002681</v>
       </c>
       <c r="X34" t="n">
-        <v>313.4894590850549</v>
+        <v>313.4894590850544</v>
       </c>
       <c r="Y34" t="n">
-        <v>229.5552571667425</v>
+        <v>229.5552571667421</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1409.760818863283</v>
+        <v>1409.760818863284</v>
       </c>
       <c r="C35" t="n">
         <v>1186.262925830994</v>
       </c>
       <c r="D35" t="n">
-        <v>971.8748266931204</v>
+        <v>971.8748266931209</v>
       </c>
       <c r="E35" t="n">
-        <v>735.5249724341304</v>
+        <v>735.5249724341309</v>
       </c>
       <c r="F35" t="n">
-        <v>479.8096473792039</v>
+        <v>479.8096473792043</v>
       </c>
       <c r="G35" t="n">
         <v>222.6337499786874</v>
       </c>
       <c r="H35" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="I35" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="J35" t="n">
-        <v>166.233365256875</v>
+        <v>166.2333652568751</v>
       </c>
       <c r="K35" t="n">
-        <v>467.7404214021471</v>
+        <v>467.7404214021472</v>
       </c>
       <c r="L35" t="n">
         <v>891.756592527151</v>
@@ -6953,7 +6953,7 @@
         <v>2220.406499468825</v>
       </c>
       <c r="P35" t="n">
-        <v>2517.9371831128</v>
+        <v>2517.937183112799</v>
       </c>
       <c r="Q35" t="n">
         <v>2664.466261835208</v>
@@ -6962,7 +6962,7 @@
         <v>2664.466261835208</v>
       </c>
       <c r="S35" t="n">
-        <v>2646.889695343528</v>
+        <v>2646.889695343527</v>
       </c>
       <c r="T35" t="n">
         <v>2583.121323126184</v>
@@ -6971,7 +6971,7 @@
         <v>2486.711230355913</v>
       </c>
       <c r="V35" t="n">
-        <v>2308.167821886757</v>
+        <v>2308.167821886758</v>
       </c>
       <c r="W35" t="n">
         <v>2104.068757379262</v>
@@ -6980,7 +6980,7 @@
         <v>1880.474482535658</v>
       </c>
       <c r="Y35" t="n">
-        <v>1645.368492746399</v>
+        <v>1645.3684927464</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I36" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9303285322137</v>
+        <v>137.9303285322136</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1019035807457</v>
+        <v>409.1019035807456</v>
       </c>
       <c r="L36" t="n">
-        <v>830.9690272440964</v>
+        <v>830.9690272440962</v>
       </c>
       <c r="M36" t="n">
         <v>1381.404577270921</v>
       </c>
       <c r="N36" t="n">
-        <v>1732.738663422083</v>
+        <v>1959.803421442126</v>
       </c>
       <c r="O36" t="n">
-        <v>2186.352374885409</v>
+        <v>1995.63171398645</v>
       </c>
       <c r="P36" t="n">
-        <v>2537.738251438926</v>
+        <v>2347.017590539967</v>
       </c>
       <c r="Q36" t="n">
         <v>2537.738251438926</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.73251761600515</v>
+        <v>74.73251761600514</v>
       </c>
       <c r="C37" t="n">
-        <v>63.5524137125886</v>
+        <v>63.55241371258858</v>
       </c>
       <c r="D37" t="n">
-        <v>63.5524137125886</v>
+        <v>63.55241371258858</v>
       </c>
       <c r="E37" t="n">
-        <v>63.5524137125886</v>
+        <v>63.55241371258858</v>
       </c>
       <c r="F37" t="n">
-        <v>63.5524137125886</v>
+        <v>63.55241371258858</v>
       </c>
       <c r="G37" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="H37" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="I37" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="J37" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670415</v>
       </c>
       <c r="K37" t="n">
-        <v>112.0353409699812</v>
+        <v>112.0353409699811</v>
       </c>
       <c r="L37" t="n">
         <v>244.8153041672762</v>
@@ -7105,22 +7105,22 @@
         <v>396.7306052876799</v>
       </c>
       <c r="N37" t="n">
-        <v>548.2681575640933</v>
+        <v>548.2681575640931</v>
       </c>
       <c r="O37" t="n">
-        <v>677.3190608334352</v>
+        <v>677.3190608334351</v>
       </c>
       <c r="P37" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="Q37" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="R37" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="S37" t="n">
-        <v>668.8299102771869</v>
+        <v>715.0341762223852</v>
       </c>
       <c r="T37" t="n">
         <v>595.0302175008628</v>
@@ -7138,7 +7138,7 @@
         <v>163.4513138383016</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.85202066548183</v>
+        <v>99.85202066548182</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1409.760818863283</v>
+        <v>1409.760818863282</v>
       </c>
       <c r="C38" t="n">
         <v>1186.262925830993</v>
       </c>
       <c r="D38" t="n">
-        <v>971.8748266931202</v>
+        <v>971.8748266931196</v>
       </c>
       <c r="E38" t="n">
-        <v>735.5249724341303</v>
+        <v>735.5249724341298</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8096473792039</v>
+        <v>479.8096473792035</v>
       </c>
       <c r="G38" t="n">
         <v>222.6337499786873</v>
       </c>
       <c r="H38" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I38" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J38" t="n">
         <v>166.233365256875</v>
@@ -7193,10 +7193,10 @@
         <v>2517.937183112799</v>
       </c>
       <c r="Q38" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R38" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S38" t="n">
         <v>2646.889695343527</v>
@@ -7208,16 +7208,16 @@
         <v>2486.711230355912</v>
       </c>
       <c r="V38" t="n">
-        <v>2308.167821886757</v>
+        <v>2308.167821886756</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.068757379261</v>
+        <v>2104.06875737926</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.474482535658</v>
+        <v>1880.474482535657</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.368492746399</v>
+        <v>1645.368492746398</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I39" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J39" t="n">
         <v>137.9303285322136</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1019035807457</v>
+        <v>409.1019035807456</v>
       </c>
       <c r="L39" t="n">
-        <v>830.9690272440964</v>
+        <v>830.9690272440962</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.404577270921</v>
+        <v>963.6191583519199</v>
       </c>
       <c r="N39" t="n">
         <v>1542.018002523125</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.9367835612041</v>
+        <v>74.73251761600484</v>
       </c>
       <c r="C40" t="n">
-        <v>109.7566796577876</v>
+        <v>63.55241371258843</v>
       </c>
       <c r="D40" t="n">
-        <v>63.55241371258852</v>
+        <v>63.55241371258843</v>
       </c>
       <c r="E40" t="n">
-        <v>63.55241371258852</v>
+        <v>63.55241371258843</v>
       </c>
       <c r="F40" t="n">
-        <v>63.55241371258852</v>
+        <v>63.55241371258843</v>
       </c>
       <c r="G40" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="H40" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I40" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J40" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K40" t="n">
-        <v>112.0353409699812</v>
+        <v>112.0353409699811</v>
       </c>
       <c r="L40" t="n">
         <v>244.8153041672762</v>
@@ -7342,40 +7342,40 @@
         <v>396.7306052876799</v>
       </c>
       <c r="N40" t="n">
-        <v>548.2681575640933</v>
+        <v>548.2681575640931</v>
       </c>
       <c r="O40" t="n">
-        <v>677.3190608334352</v>
+        <v>677.3190608334351</v>
       </c>
       <c r="P40" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="Q40" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="R40" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="S40" t="n">
-        <v>715.0341762223854</v>
+        <v>668.8299102771856</v>
       </c>
       <c r="T40" t="n">
-        <v>641.2344834460614</v>
+        <v>595.0302175008617</v>
       </c>
       <c r="U40" t="n">
-        <v>512.4921529075933</v>
+        <v>466.2878869623937</v>
       </c>
       <c r="V40" t="n">
-        <v>410.1927141009191</v>
+        <v>363.9884481557195</v>
       </c>
       <c r="W40" t="n">
-        <v>282.4721782532214</v>
+        <v>236.2679123080219</v>
       </c>
       <c r="X40" t="n">
-        <v>209.6555797835004</v>
+        <v>163.451313838301</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.0562866106807</v>
+        <v>99.85202066548138</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>1409.760818863283</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.262925830994</v>
+        <v>1186.262925830993</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8748266931204</v>
+        <v>971.8748266931198</v>
       </c>
       <c r="E41" t="n">
-        <v>735.5249724341304</v>
+        <v>735.5249724341298</v>
       </c>
       <c r="F41" t="n">
-        <v>479.8096473792039</v>
+        <v>479.8096473792034</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6337499786862</v>
+        <v>222.6337499786873</v>
       </c>
       <c r="H41" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I41" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J41" t="n">
         <v>166.233365256875</v>
@@ -7415,7 +7415,7 @@
         <v>467.7404214021471</v>
       </c>
       <c r="L41" t="n">
-        <v>891.756592527151</v>
+        <v>891.7565925271513</v>
       </c>
       <c r="M41" t="n">
         <v>1369.705940434161</v>
@@ -7430,31 +7430,31 @@
         <v>2517.937183112799</v>
       </c>
       <c r="Q41" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R41" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S41" t="n">
-        <v>2646.889695343527</v>
+        <v>2646.889695343526</v>
       </c>
       <c r="T41" t="n">
-        <v>2583.121323126184</v>
+        <v>2583.121323126183</v>
       </c>
       <c r="U41" t="n">
         <v>2486.711230355912</v>
       </c>
       <c r="V41" t="n">
-        <v>2308.167821886757</v>
+        <v>2308.167821886756</v>
       </c>
       <c r="W41" t="n">
         <v>2104.068757379261</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.474482535658</v>
+        <v>1880.474482535657</v>
       </c>
       <c r="Y41" t="n">
-        <v>1645.368492746399</v>
+        <v>1645.368492746398</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I42" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J42" t="n">
         <v>137.9303285322136</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1019035807457</v>
+        <v>409.1019035807456</v>
       </c>
       <c r="L42" t="n">
-        <v>764.5694848786122</v>
+        <v>830.9690272440962</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.005034905437</v>
+        <v>1381.404577270921</v>
       </c>
       <c r="N42" t="n">
-        <v>1893.403879076642</v>
+        <v>1542.018002523125</v>
       </c>
       <c r="O42" t="n">
-        <v>2347.017590539967</v>
+        <v>1995.63171398645</v>
       </c>
       <c r="P42" t="n">
         <v>2347.017590539967</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.9367835612039</v>
+        <v>120.936783561204</v>
       </c>
       <c r="C43" t="n">
-        <v>109.7566796577873</v>
+        <v>109.7566796577875</v>
       </c>
       <c r="D43" t="n">
-        <v>109.7566796577873</v>
+        <v>109.7566796577875</v>
       </c>
       <c r="E43" t="n">
-        <v>63.55241371258855</v>
+        <v>109.7566796577875</v>
       </c>
       <c r="F43" t="n">
-        <v>63.55241371258855</v>
+        <v>109.7566796577875</v>
       </c>
       <c r="G43" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="H43" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I43" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J43" t="n">
-        <v>53.28932523670415</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K43" t="n">
-        <v>112.0353409699812</v>
+        <v>112.0353409699811</v>
       </c>
       <c r="L43" t="n">
         <v>244.8153041672762</v>
@@ -7579,19 +7579,19 @@
         <v>396.7306052876799</v>
       </c>
       <c r="N43" t="n">
-        <v>548.2681575640933</v>
+        <v>548.2681575640931</v>
       </c>
       <c r="O43" t="n">
-        <v>677.3190608334352</v>
+        <v>677.3190608334351</v>
       </c>
       <c r="P43" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="Q43" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="R43" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="S43" t="n">
         <v>715.0341762223853</v>
@@ -7609,10 +7609,10 @@
         <v>282.4721782532213</v>
       </c>
       <c r="X43" t="n">
-        <v>209.6555797835002</v>
+        <v>209.6555797835003</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.0562866106805</v>
+        <v>146.0562866106806</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>1409.760818863283</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.262925830994</v>
+        <v>1186.262925830993</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8748266931207</v>
+        <v>971.8748266931204</v>
       </c>
       <c r="E44" t="n">
-        <v>735.5249724341307</v>
+        <v>735.5249724341304</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8096473792043</v>
+        <v>479.8096473792039</v>
       </c>
       <c r="G44" t="n">
         <v>222.6337499786874</v>
       </c>
       <c r="H44" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I44" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2333652568752</v>
+        <v>166.233365256875</v>
       </c>
       <c r="K44" t="n">
-        <v>467.7404214021474</v>
+        <v>467.7404214021471</v>
       </c>
       <c r="L44" t="n">
         <v>891.7565925271513</v>
@@ -7658,34 +7658,34 @@
         <v>1369.705940434161</v>
       </c>
       <c r="N44" t="n">
-        <v>1834.118180076728</v>
+        <v>1834.118180076727</v>
       </c>
       <c r="O44" t="n">
-        <v>2220.406499468826</v>
+        <v>2220.406499468825</v>
       </c>
       <c r="P44" t="n">
-        <v>2517.9371831128</v>
+        <v>2517.937183112799</v>
       </c>
       <c r="Q44" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="R44" t="n">
-        <v>2664.466261835208</v>
+        <v>2664.466261835207</v>
       </c>
       <c r="S44" t="n">
-        <v>2646.889695343528</v>
+        <v>2646.889695343527</v>
       </c>
       <c r="T44" t="n">
-        <v>2583.121323126184</v>
+        <v>2583.121323126183</v>
       </c>
       <c r="U44" t="n">
-        <v>2486.711230355913</v>
+        <v>2486.711230355912</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.167821886758</v>
+        <v>2308.167821886757</v>
       </c>
       <c r="W44" t="n">
-        <v>2104.068757379262</v>
+        <v>2104.068757379261</v>
       </c>
       <c r="X44" t="n">
         <v>1880.474482535658</v>
@@ -7722,25 +7722,25 @@
         <v>112.6040756791997</v>
       </c>
       <c r="I45" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J45" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4609002852362</v>
+        <v>182.0371455607032</v>
       </c>
       <c r="L45" t="n">
-        <v>746.3280239485869</v>
+        <v>603.9042692240539</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.763573975411</v>
+        <v>1154.339819250878</v>
       </c>
       <c r="N45" t="n">
-        <v>1875.162418146616</v>
+        <v>1732.738663422083</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.776129609942</v>
+        <v>2186.352374885409</v>
       </c>
       <c r="P45" t="n">
         <v>2537.738251438926</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.7325176160051</v>
+        <v>74.73251761600507</v>
       </c>
       <c r="C46" t="n">
-        <v>63.55241371258857</v>
+        <v>63.55241371258855</v>
       </c>
       <c r="D46" t="n">
-        <v>63.55241371258857</v>
+        <v>63.55241371258855</v>
       </c>
       <c r="E46" t="n">
-        <v>63.55241371258857</v>
+        <v>63.55241371258855</v>
       </c>
       <c r="F46" t="n">
-        <v>63.55241371258857</v>
+        <v>63.55241371258855</v>
       </c>
       <c r="G46" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="H46" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="I46" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="J46" t="n">
-        <v>53.28932523670417</v>
+        <v>53.28932523670414</v>
       </c>
       <c r="K46" t="n">
-        <v>112.0353409699812</v>
+        <v>112.0353409699811</v>
       </c>
       <c r="L46" t="n">
         <v>244.8153041672762</v>
@@ -7816,40 +7816,40 @@
         <v>396.7306052876799</v>
       </c>
       <c r="N46" t="n">
-        <v>548.2681575640933</v>
+        <v>548.2681575640931</v>
       </c>
       <c r="O46" t="n">
-        <v>677.3190608334352</v>
+        <v>677.3190608334351</v>
       </c>
       <c r="P46" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="Q46" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="R46" t="n">
-        <v>766.4602268433242</v>
+        <v>766.4602268433241</v>
       </c>
       <c r="S46" t="n">
-        <v>668.8299102771866</v>
+        <v>715.0341762223852</v>
       </c>
       <c r="T46" t="n">
-        <v>595.0302175008626</v>
+        <v>641.2344834460612</v>
       </c>
       <c r="U46" t="n">
-        <v>466.2878869623945</v>
+        <v>512.4921529075931</v>
       </c>
       <c r="V46" t="n">
-        <v>363.9884481557202</v>
+        <v>410.1927141009189</v>
       </c>
       <c r="W46" t="n">
         <v>236.2679123080225</v>
       </c>
       <c r="X46" t="n">
-        <v>163.4513138383015</v>
+        <v>163.4513138383014</v>
       </c>
       <c r="Y46" t="n">
-        <v>99.85202066548175</v>
+        <v>99.85202066548172</v>
       </c>
     </row>
   </sheetData>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>203.5031588434685</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
         <v>198.415200160258</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.4565725468042</v>
       </c>
       <c r="L9" t="n">
         <v>124.5183802515017</v>
@@ -8541,10 +8541,10 @@
         <v>127.4268492419938</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0542028586437</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>115.2049082581395</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578772</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>78.42238301777448</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,7 +8775,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>183.4111092194446</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>270.1392207222895</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>80.45334183543338</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8939,7 +8939,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.04023564157</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>78.42238301777449</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,13 +9015,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>201.1396129910635</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>77.49208850111967</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236968</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406822</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>78.42238301777449</v>
+        <v>78.42238301777448</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>286.6355759158211</v>
+        <v>286.6355759158207</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>393.7867452122338</v>
+        <v>201.1396129910635</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.45334183543338</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>78.42238301777445</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>69.89412624914817</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>393.7867452122338</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.45334183543338</v>
+        <v>210.5016451930084</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>78.42238301777444</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>69.89412624914817</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>393.7867452122338</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.45334183543338</v>
+        <v>210.5016451930084</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>78.42238301777445</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>268.9070721442007</v>
       </c>
       <c r="N30" t="n">
-        <v>201.1396129910631</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>78.42238301777445</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>199.9424296067234</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>201.1396129910631</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>80.45334183543332</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>393.786745212233</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>90.01554140419196</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>80.45334183543332</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>568.551001735579</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578762</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>183.4111092194435</v>
       </c>
       <c r="N39" t="n">
-        <v>201.1396129910627</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11142,19 +11142,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>415.0222040808765</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>201.1396129910629</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>59.06637038998191</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>78.42238301777444</v>
+        <v>78.42238301777445</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>199.942429606723</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>270.1392207222889</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>80.45334183543332</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>286.5595905131951</v>
       </c>
       <c r="C11" t="n">
-        <v>13.38963541378513</v>
+        <v>23.70398235476182</v>
       </c>
       <c r="D11" t="n">
-        <v>265.5522115154048</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>287.2943490853104</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.75883077809604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>148.7539852114791</v>
       </c>
       <c r="V11" t="n">
-        <v>230.0659677533743</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.0629232602765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>265.5522115154048</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>287.2943490853104</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>12.89296816086719</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.0659677533743</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>221.2167983443361</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-2.899723157851932e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>23.91856141677951</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>307.9121317954218</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.9589738634737</v>
       </c>
       <c r="I26" t="n">
-        <v>48.75883077809601</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.70879419567366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.2733765691232666</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>230.0659677533743</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>66.6380261366424</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>220.9589738634737</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>48.758830778096</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.70879419567366</v>
       </c>
       <c r="T29" t="n">
         <v>116.4386818640806</v>
       </c>
       <c r="U29" t="n">
-        <v>113.9006624584161</v>
+        <v>148.753985211479</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856735.3103447359</v>
+        <v>856735.3103447357</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>884783.702072699</v>
+        <v>884783.7020726987</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>884783.702072699</v>
+        <v>884783.7020726987</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555260.5578427954</v>
+        <v>555260.5578427957</v>
       </c>
       <c r="C2" t="n">
         <v>555260.5578427955</v>
@@ -26320,37 +26320,37 @@
         <v>556527.4438582819</v>
       </c>
       <c r="E2" t="n">
-        <v>510643.9115716001</v>
+        <v>510643.9115716</v>
       </c>
       <c r="F2" t="n">
-        <v>510643.9115716</v>
+        <v>510643.9115715998</v>
       </c>
       <c r="G2" t="n">
+        <v>556527.4438582816</v>
+      </c>
+      <c r="H2" t="n">
+        <v>556527.4438582812</v>
+      </c>
+      <c r="I2" t="n">
         <v>556527.4438582814</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>530483.0179157689</v>
+      </c>
+      <c r="K2" t="n">
+        <v>530483.0179157688</v>
+      </c>
+      <c r="L2" t="n">
+        <v>556527.4438582821</v>
+      </c>
+      <c r="M2" t="n">
         <v>556527.4438582815</v>
       </c>
-      <c r="I2" t="n">
-        <v>556527.4438582815</v>
-      </c>
-      <c r="J2" t="n">
-        <v>530483.017915769</v>
-      </c>
-      <c r="K2" t="n">
-        <v>530483.0179157689</v>
-      </c>
-      <c r="L2" t="n">
-        <v>556527.4438582823</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556527.4438582814</v>
-      </c>
       <c r="N2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582811</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582812</v>
       </c>
       <c r="P2" t="n">
         <v>556527.4438582814</v>
@@ -26372,13 +26372,13 @@
         <v>3709.837527318327</v>
       </c>
       <c r="E3" t="n">
-        <v>375542.1141198695</v>
+        <v>375542.1141198694</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>42646.39469512832</v>
+        <v>42646.3946951284</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63365.59383504877</v>
+        <v>63365.59383504868</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>69187.54166382639</v>
+        <v>69187.5416638265</v>
       </c>
       <c r="M3" t="n">
         <v>160028.9536226169</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40188.4161925867</v>
+        <v>40188.41619258668</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>387995.6593825327</v>
       </c>
       <c r="D4" t="n">
-        <v>387212.3726853603</v>
+        <v>387212.3726853604</v>
       </c>
       <c r="E4" t="n">
         <v>242610.1594038233</v>
@@ -26430,28 +26430,28 @@
         <v>242610.1594038233</v>
       </c>
       <c r="G4" t="n">
+        <v>278496.7327453987</v>
+      </c>
+      <c r="H4" t="n">
         <v>278496.7327453986</v>
-      </c>
-      <c r="H4" t="n">
-        <v>278496.7327453985</v>
       </c>
       <c r="I4" t="n">
         <v>278496.7327453985</v>
       </c>
       <c r="J4" t="n">
-        <v>258587.7934516703</v>
+        <v>258587.7934516702</v>
       </c>
       <c r="K4" t="n">
-        <v>258587.7934516703</v>
+        <v>258587.7934516702</v>
       </c>
       <c r="L4" t="n">
-        <v>278876.2858072721</v>
+        <v>278876.2858072722</v>
       </c>
       <c r="M4" t="n">
         <v>278496.7327453985</v>
       </c>
       <c r="N4" t="n">
-        <v>278496.7327453985</v>
+        <v>278496.7327453986</v>
       </c>
       <c r="O4" t="n">
         <v>278496.7327453985</v>
@@ -26482,34 +26482,34 @@
         <v>51847.19981611391</v>
       </c>
       <c r="G5" t="n">
-        <v>56328.74951064484</v>
+        <v>56328.74951064485</v>
       </c>
       <c r="H5" t="n">
-        <v>56328.74951064483</v>
+        <v>56328.74951064485</v>
       </c>
       <c r="I5" t="n">
-        <v>56328.74951064483</v>
+        <v>56328.74951064485</v>
       </c>
       <c r="J5" t="n">
         <v>57233.0385919379</v>
       </c>
       <c r="K5" t="n">
-        <v>57233.03859193791</v>
+        <v>57233.0385919379</v>
       </c>
       <c r="L5" t="n">
-        <v>59296.01703941174</v>
+        <v>59296.01703941173</v>
       </c>
       <c r="M5" t="n">
-        <v>56328.74951064485</v>
+        <v>56328.74951064484</v>
       </c>
       <c r="N5" t="n">
         <v>56328.74951064485</v>
       </c>
       <c r="O5" t="n">
-        <v>56328.74951064484</v>
+        <v>56328.74951064483</v>
       </c>
       <c r="P5" t="n">
-        <v>56328.74951064485</v>
+        <v>56328.74951064483</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133637.2984602627</v>
+        <v>133632.9298877958</v>
       </c>
       <c r="C6" t="n">
-        <v>133637.2984602628</v>
+        <v>133632.9298877956</v>
       </c>
       <c r="D6" t="n">
         <v>131251.5024874378</v>
       </c>
       <c r="E6" t="n">
-        <v>-159355.5617682067</v>
+        <v>-159513.7808450572</v>
       </c>
       <c r="F6" t="n">
-        <v>216186.5523516627</v>
+        <v>216028.3332748119</v>
       </c>
       <c r="G6" t="n">
-        <v>179055.5669071096</v>
+        <v>179055.5669071097</v>
       </c>
       <c r="H6" t="n">
-        <v>221701.9616022381</v>
+        <v>221701.9616022378</v>
       </c>
       <c r="I6" t="n">
         <v>221701.9616022381</v>
       </c>
       <c r="J6" t="n">
-        <v>151296.592037112</v>
+        <v>151206.7836717931</v>
       </c>
       <c r="K6" t="n">
-        <v>214662.1858721607</v>
+        <v>214572.3775068417</v>
       </c>
       <c r="L6" t="n">
-        <v>149167.599347772</v>
+        <v>149167.5993477716</v>
       </c>
       <c r="M6" t="n">
-        <v>61673.00797962109</v>
+        <v>61673.00797962127</v>
       </c>
       <c r="N6" t="n">
-        <v>221701.9616022381</v>
+        <v>221701.9616022377</v>
       </c>
       <c r="O6" t="n">
-        <v>181513.5454096514</v>
+        <v>181513.5454096512</v>
       </c>
       <c r="P6" t="n">
         <v>221701.961602238</v>
@@ -26698,10 +26698,10 @@
         <v>103.5435136096438</v>
       </c>
       <c r="G2" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="I2" t="n">
         <v>156.8515069785542</v>
@@ -26719,10 +26719,10 @@
         <v>156.8515069785541</v>
       </c>
       <c r="N2" t="n">
+        <v>156.8515069785543</v>
+      </c>
+      <c r="O2" t="n">
         <v>156.8515069785542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>156.8515069785541</v>
       </c>
       <c r="P2" t="n">
         <v>156.8515069785541</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279641</v>
       </c>
       <c r="F3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279641</v>
       </c>
       <c r="G3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279641</v>
       </c>
       <c r="H3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279641</v>
       </c>
       <c r="I3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279643</v>
       </c>
       <c r="J3" t="n">
-        <v>121.2161922279641</v>
+        <v>121.2161922279643</v>
       </c>
       <c r="K3" t="n">
         <v>121.2161922279643</v>
@@ -26796,40 +26796,40 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
+        <v>666.1165654588017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>666.1165654588017</v>
+      </c>
+      <c r="G4" t="n">
+        <v>666.1165654588017</v>
+      </c>
+      <c r="H4" t="n">
+        <v>666.1165654588017</v>
+      </c>
+      <c r="I4" t="n">
+        <v>666.116565458802</v>
+      </c>
+      <c r="J4" t="n">
+        <v>754.6994400611699</v>
+      </c>
+      <c r="K4" t="n">
+        <v>754.6994400611699</v>
+      </c>
+      <c r="L4" t="n">
+        <v>742.756493380816</v>
+      </c>
+      <c r="M4" t="n">
         <v>666.1165654588019</v>
       </c>
-      <c r="F4" t="n">
-        <v>666.1165654588019</v>
-      </c>
-      <c r="G4" t="n">
-        <v>666.1165654588019</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>666.1165654588018</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>666.1165654588018</v>
       </c>
-      <c r="J4" t="n">
-        <v>754.6994400611701</v>
-      </c>
-      <c r="K4" t="n">
-        <v>754.6994400611701</v>
-      </c>
-      <c r="L4" t="n">
-        <v>742.7564933808162</v>
-      </c>
-      <c r="M4" t="n">
-        <v>666.116565458802</v>
-      </c>
-      <c r="N4" t="n">
-        <v>666.1165654588019</v>
-      </c>
-      <c r="O4" t="n">
-        <v>666.1165654588019</v>
-      </c>
       <c r="P4" t="n">
-        <v>666.116565458802</v>
+        <v>666.1165654588018</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>103.5435136096438</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3079933689104</v>
+        <v>53.3079933689105</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.23552024073341</v>
+        <v>50.23552024073344</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>86.48442707978298</v>
+        <v>86.48442707978313</v>
       </c>
       <c r="M2" t="n">
-        <v>20.13155965803773</v>
+        <v>20.13155965803767</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.23552024073338</v>
+        <v>50.23552024073335</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.216192227964</v>
+        <v>121.2161922279641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>654.173618778448</v>
+        <v>654.1736187784478</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.58287460236829</v>
+        <v>88.58287460236784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>577.5336908564339</v>
+        <v>577.5336908564337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>103.5435136096438</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>53.3079933689104</v>
+        <v>53.3079933689105</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.23552024073341</v>
+        <v>50.23552024073344</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M4" t="n">
-        <v>654.173618778448</v>
+        <v>654.1736187784478</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>210.172410125945</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.41913144271324</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>205.7904970416172</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602387</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>156.7112037097728</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I10" t="n">
         <v>130.8180672729944</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="D17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="E17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="F17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="G17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="I17" t="n">
         <v>152.3023443877399</v>
@@ -28612,25 +28612,25 @@
         <v>59.12146490527665</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="T17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="U17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8515069785542</v>
+        <v>111.1092836928063</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H19" t="n">
         <v>155.835485391487</v>
@@ -28743,7 +28743,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J19" t="n">
-        <v>44.00259526624972</v>
+        <v>44.00259526624971</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="T19" t="n">
-        <v>111.1092836928072</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="U19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="E20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="I20" t="n">
         <v>152.3023443877399</v>
@@ -28849,25 +28849,25 @@
         <v>59.12146490527665</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="T20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H22" t="n">
         <v>155.835485391487</v>
@@ -28980,7 +28980,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J22" t="n">
-        <v>44.00259526624972</v>
+        <v>44.00259526624971</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="T22" t="n">
-        <v>156.8515069785542</v>
+        <v>111.1092836928063</v>
       </c>
       <c r="U22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V22" t="n">
-        <v>111.1092836928073</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>156.8515069785542</v>
       </c>
       <c r="I23" t="n">
-        <v>152.3023443877399</v>
+        <v>152.3023443877398</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.12146490527665</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S23" t="n">
         <v>156.8515069785542</v>
@@ -29211,13 +29211,13 @@
         <v>156.8515069785542</v>
       </c>
       <c r="H25" t="n">
-        <v>155.835485391487</v>
+        <v>155.8354853914869</v>
       </c>
       <c r="I25" t="n">
-        <v>90.44529617759927</v>
+        <v>136.1875194633465</v>
       </c>
       <c r="J25" t="n">
-        <v>44.00259526624972</v>
+        <v>44.00259526624969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.84832290642528</v>
+        <v>19.84832290642525</v>
       </c>
       <c r="R25" t="n">
         <v>138.1981162478392</v>
@@ -29250,7 +29250,7 @@
         <v>156.8515069785542</v>
       </c>
       <c r="U25" t="n">
-        <v>156.8515069785542</v>
+        <v>111.1092836928072</v>
       </c>
       <c r="V25" t="n">
         <v>156.8515069785542</v>
@@ -29302,25 +29302,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>103.5435136096438</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>99.24331644127881</v>
+        <v>103.5435136096438</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>103.5435136096438</v>
       </c>
-      <c r="P26" t="n">
-        <v>103.5435136096438</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>103.5435136096438</v>
+        <v>99.24331644127702</v>
       </c>
       <c r="S26" t="n">
         <v>103.5435136096438</v>
@@ -29533,7 +29533,7 @@
         <v>103.5435136096438</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>103.5435136096438</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,22 +29542,22 @@
         <v>103.5435136096438</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>103.5435136096438</v>
       </c>
-      <c r="N29" t="n">
-        <v>103.5435136096438</v>
-      </c>
-      <c r="O29" t="n">
-        <v>40.12185153600137</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>59.12146490527658</v>
+        <v>99.24331644127705</v>
       </c>
       <c r="S29" t="n">
         <v>103.5435136096438</v>
@@ -29770,20 +29770,20 @@
         <v>136.7199473205164</v>
       </c>
       <c r="J32" t="n">
-        <v>30.02325430270074</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>30.02325430269991</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>136.7199473205164</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>136.7199473205164</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.12146490527658</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S32" t="n">
         <v>136.7199473205164</v>
@@ -29925,17 +29925,17 @@
         <v>136.7199473205164</v>
       </c>
       <c r="I34" t="n">
+        <v>136.1875194633465</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44.00259526624969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>86.71968648487506</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7199473205164</v>
       </c>
-      <c r="J34" t="n">
-        <v>44.00259526624968</v>
-      </c>
-      <c r="K34" t="n">
-        <v>106.0355815341314</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7199473205164</v>
+        <v>19.84832290642525</v>
       </c>
       <c r="R34" t="n">
         <v>136.7199473205164</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.12146490527658</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S35" t="n">
         <v>156.8515069785541</v>
@@ -30165,7 +30165,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J37" t="n">
-        <v>44.00259526624968</v>
+        <v>44.00259526624969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,10 +30192,10 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S37" t="n">
-        <v>111.1092836928076</v>
+        <v>156.8515069785541</v>
       </c>
       <c r="T37" t="n">
-        <v>156.8515069785541</v>
+        <v>111.1092836928078</v>
       </c>
       <c r="U37" t="n">
         <v>156.8515069785541</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="D38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="E38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="F38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="G38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="I38" t="n">
         <v>152.3023443877398</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.12146490527658</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="T38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="U38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="C40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="D40" t="n">
-        <v>105.7989509547678</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="H40" t="n">
         <v>155.8354853914869</v>
@@ -30402,7 +30402,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J40" t="n">
-        <v>44.00259526624968</v>
+        <v>44.00259526624969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S40" t="n">
-        <v>156.8515069785542</v>
+        <v>111.1092836928065</v>
       </c>
       <c r="T40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="U40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="V40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="W40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="X40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.8515069785542</v>
+        <v>156.8515069785543</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="C41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="D41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="E41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="F41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="G41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="I41" t="n">
         <v>152.3023443877398</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>59.12146490527658</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="T41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="U41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="V41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="W41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="X41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
     </row>
     <row r="42">
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="C43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>104.7467008105476</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>156.8515069785541</v>
+        <v>111.1092836928072</v>
       </c>
       <c r="H43" t="n">
         <v>155.8354853914869</v>
@@ -30639,7 +30639,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J43" t="n">
-        <v>44.00259526624968</v>
+        <v>44.00259526624969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="T43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="U43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="V43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="W43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="X43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.8515069785541</v>
+        <v>156.8515069785542</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.12146490527658</v>
+        <v>59.1214649052766</v>
       </c>
       <c r="S44" t="n">
         <v>156.8515069785541</v>
@@ -30876,7 +30876,7 @@
         <v>136.1875194633465</v>
       </c>
       <c r="J46" t="n">
-        <v>44.00259526624968</v>
+        <v>44.00259526624969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>138.1981162478392</v>
       </c>
       <c r="S46" t="n">
-        <v>111.1092836928074</v>
+        <v>156.8515069785541</v>
       </c>
       <c r="T46" t="n">
         <v>156.8515069785541</v>
@@ -30915,7 +30915,7 @@
         <v>156.8515069785541</v>
       </c>
       <c r="W46" t="n">
-        <v>156.8515069785541</v>
+        <v>111.1092836928075</v>
       </c>
       <c r="X46" t="n">
         <v>156.8515069785541</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4873012752882973</v>
+        <v>0.4873012752882974</v>
       </c>
       <c r="H11" t="n">
-        <v>4.990574185546276</v>
+        <v>4.990574185546278</v>
       </c>
       <c r="I11" t="n">
         <v>18.7866824155521</v>
       </c>
       <c r="J11" t="n">
-        <v>41.35908661350015</v>
+        <v>41.35908661350017</v>
       </c>
       <c r="K11" t="n">
-        <v>61.98654959645379</v>
+        <v>61.98654959645381</v>
       </c>
       <c r="L11" t="n">
-        <v>76.89979600005803</v>
+        <v>76.89979600005806</v>
       </c>
       <c r="M11" t="n">
-        <v>85.56584005446628</v>
+        <v>85.56584005446632</v>
       </c>
       <c r="N11" t="n">
-        <v>86.95038480287917</v>
+        <v>86.9503848028792</v>
       </c>
       <c r="O11" t="n">
-        <v>82.10478274673116</v>
+        <v>82.10478274673119</v>
       </c>
       <c r="P11" t="n">
-        <v>70.07453251305131</v>
+        <v>70.07453251305134</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.62305559178915</v>
+        <v>52.62305559178916</v>
       </c>
       <c r="R11" t="n">
-        <v>30.61043873382853</v>
+        <v>30.61043873382854</v>
       </c>
       <c r="S11" t="n">
-        <v>11.10437781063208</v>
+        <v>11.10437781063209</v>
       </c>
       <c r="T11" t="n">
-        <v>2.133161332574522</v>
+        <v>2.133161332574523</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03898410202306377</v>
+        <v>0.03898410202306379</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2607291681884509</v>
+        <v>0.260729168188451</v>
       </c>
       <c r="H12" t="n">
         <v>2.518094861188461</v>
       </c>
       <c r="I12" t="n">
-        <v>8.976859518769036</v>
+        <v>8.976859518769039</v>
       </c>
       <c r="J12" t="n">
-        <v>24.6331886488922</v>
+        <v>24.63318864889221</v>
       </c>
       <c r="K12" t="n">
-        <v>42.10204291751842</v>
+        <v>42.10204291751843</v>
       </c>
       <c r="L12" t="n">
-        <v>56.61139241740906</v>
+        <v>56.61139241740908</v>
       </c>
       <c r="M12" t="n">
-        <v>66.06282476424039</v>
+        <v>66.06282476424042</v>
       </c>
       <c r="N12" t="n">
-        <v>67.81131115967962</v>
+        <v>67.81131115967965</v>
       </c>
       <c r="O12" t="n">
-        <v>62.03410169613552</v>
+        <v>62.03410169613554</v>
       </c>
       <c r="P12" t="n">
-        <v>49.7878356341613</v>
+        <v>49.78783563416133</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.28184960945911</v>
+        <v>33.28184960945912</v>
       </c>
       <c r="R12" t="n">
         <v>16.18807940734962</v>
       </c>
       <c r="S12" t="n">
-        <v>4.842929944202145</v>
+        <v>4.842929944202147</v>
       </c>
       <c r="T12" t="n">
         <v>1.050921515636782</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0171532347492402</v>
+        <v>0.01715323474924021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2185865761487876</v>
+        <v>0.2185865761487877</v>
       </c>
       <c r="H13" t="n">
-        <v>1.943433377031949</v>
+        <v>1.94343337703195</v>
       </c>
       <c r="I13" t="n">
-        <v>6.573494490001723</v>
+        <v>6.573494490001725</v>
       </c>
       <c r="J13" t="n">
-        <v>15.45407093371928</v>
+        <v>15.45407093371929</v>
       </c>
       <c r="K13" t="n">
         <v>25.39578584710459</v>
       </c>
       <c r="L13" t="n">
-        <v>32.49786242124793</v>
+        <v>32.49786242124794</v>
       </c>
       <c r="M13" t="n">
-        <v>34.26443938666858</v>
+        <v>34.26443938666859</v>
       </c>
       <c r="N13" t="n">
-        <v>33.44970760284131</v>
+        <v>33.44970760284132</v>
       </c>
       <c r="O13" t="n">
-        <v>30.896218963285</v>
+        <v>30.89621896328502</v>
       </c>
       <c r="P13" t="n">
-        <v>26.43705280984971</v>
+        <v>26.43705280984972</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.30364502642257</v>
+        <v>18.30364502642258</v>
       </c>
       <c r="R13" t="n">
-        <v>9.828447323926392</v>
+        <v>9.828447323926396</v>
       </c>
       <c r="S13" t="n">
-        <v>3.809367877065688</v>
+        <v>3.809367877065689</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9339608253630012</v>
+        <v>0.9339608253630015</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01192290415357024</v>
+        <v>0.01192290415357025</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4873012752882973</v>
+        <v>0.4873012752882974</v>
       </c>
       <c r="H14" t="n">
-        <v>4.990574185546276</v>
+        <v>4.990574185546277</v>
       </c>
       <c r="I14" t="n">
         <v>18.7866824155521</v>
       </c>
       <c r="J14" t="n">
-        <v>41.35908661350015</v>
+        <v>41.35908661350017</v>
       </c>
       <c r="K14" t="n">
-        <v>61.98654959645379</v>
+        <v>61.98654959645381</v>
       </c>
       <c r="L14" t="n">
-        <v>76.89979600005803</v>
+        <v>76.89979600005805</v>
       </c>
       <c r="M14" t="n">
-        <v>85.56584005446628</v>
+        <v>85.56584005446631</v>
       </c>
       <c r="N14" t="n">
-        <v>86.95038480287917</v>
+        <v>86.95038480287919</v>
       </c>
       <c r="O14" t="n">
-        <v>82.10478274673116</v>
+        <v>82.10478274673117</v>
       </c>
       <c r="P14" t="n">
-        <v>70.07453251305131</v>
+        <v>70.07453251305132</v>
       </c>
       <c r="Q14" t="n">
         <v>52.62305559178915</v>
@@ -32023,13 +32023,13 @@
         <v>30.61043873382853</v>
       </c>
       <c r="S14" t="n">
-        <v>11.10437781063208</v>
+        <v>11.10437781063209</v>
       </c>
       <c r="T14" t="n">
-        <v>2.133161332574522</v>
+        <v>2.133161332574523</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03898410202306377</v>
+        <v>0.03898410202306378</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2607291681884509</v>
+        <v>0.260729168188451</v>
       </c>
       <c r="H15" t="n">
         <v>2.518094861188461</v>
       </c>
       <c r="I15" t="n">
-        <v>8.976859518769036</v>
+        <v>8.976859518769038</v>
       </c>
       <c r="J15" t="n">
-        <v>24.6331886488922</v>
+        <v>24.63318864889221</v>
       </c>
       <c r="K15" t="n">
         <v>42.10204291751842</v>
       </c>
       <c r="L15" t="n">
-        <v>56.61139241740906</v>
+        <v>56.61139241740907</v>
       </c>
       <c r="M15" t="n">
-        <v>66.06282476424039</v>
+        <v>66.0628247642404</v>
       </c>
       <c r="N15" t="n">
-        <v>67.81131115967962</v>
+        <v>67.81131115967963</v>
       </c>
       <c r="O15" t="n">
-        <v>62.03410169613552</v>
+        <v>62.03410169613553</v>
       </c>
       <c r="P15" t="n">
-        <v>49.7878356341613</v>
+        <v>49.78783563416132</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.28184960945911</v>
+        <v>33.28184960945912</v>
       </c>
       <c r="R15" t="n">
         <v>16.18807940734962</v>
       </c>
       <c r="S15" t="n">
-        <v>4.842929944202145</v>
+        <v>4.842929944202146</v>
       </c>
       <c r="T15" t="n">
         <v>1.050921515636782</v>
@@ -32148,10 +32148,10 @@
         <v>0.2185865761487876</v>
       </c>
       <c r="H16" t="n">
-        <v>1.943433377031949</v>
+        <v>1.94343337703195</v>
       </c>
       <c r="I16" t="n">
-        <v>6.573494490001723</v>
+        <v>6.573494490001725</v>
       </c>
       <c r="J16" t="n">
         <v>15.45407093371928</v>
@@ -32160,7 +32160,7 @@
         <v>25.39578584710459</v>
       </c>
       <c r="L16" t="n">
-        <v>32.49786242124793</v>
+        <v>32.49786242124794</v>
       </c>
       <c r="M16" t="n">
         <v>34.26443938666858</v>
@@ -32169,25 +32169,25 @@
         <v>33.44970760284131</v>
       </c>
       <c r="O16" t="n">
-        <v>30.896218963285</v>
+        <v>30.89621896328501</v>
       </c>
       <c r="P16" t="n">
-        <v>26.43705280984971</v>
+        <v>26.43705280984972</v>
       </c>
       <c r="Q16" t="n">
         <v>18.30364502642257</v>
       </c>
       <c r="R16" t="n">
-        <v>9.828447323926392</v>
+        <v>9.828447323926394</v>
       </c>
       <c r="S16" t="n">
         <v>3.809367877065688</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9339608253630012</v>
+        <v>0.9339608253630014</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01192290415357024</v>
+        <v>0.01192290415357025</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4873012752882973</v>
+        <v>0.4873012752882974</v>
       </c>
       <c r="H17" t="n">
-        <v>4.990574185546276</v>
+        <v>4.990574185546277</v>
       </c>
       <c r="I17" t="n">
         <v>18.7866824155521</v>
       </c>
       <c r="J17" t="n">
-        <v>41.35908661350015</v>
+        <v>41.35908661350017</v>
       </c>
       <c r="K17" t="n">
-        <v>61.98654959645379</v>
+        <v>61.98654959645381</v>
       </c>
       <c r="L17" t="n">
-        <v>76.89979600005803</v>
+        <v>76.89979600005805</v>
       </c>
       <c r="M17" t="n">
-        <v>85.56584005446628</v>
+        <v>85.56584005446631</v>
       </c>
       <c r="N17" t="n">
-        <v>86.95038480287917</v>
+        <v>86.95038480287919</v>
       </c>
       <c r="O17" t="n">
-        <v>82.10478274673116</v>
+        <v>82.10478274673117</v>
       </c>
       <c r="P17" t="n">
-        <v>70.07453251305131</v>
+        <v>70.07453251305132</v>
       </c>
       <c r="Q17" t="n">
         <v>52.62305559178915</v>
@@ -32260,13 +32260,13 @@
         <v>30.61043873382853</v>
       </c>
       <c r="S17" t="n">
-        <v>11.10437781063208</v>
+        <v>11.10437781063209</v>
       </c>
       <c r="T17" t="n">
-        <v>2.133161332574522</v>
+        <v>2.133161332574523</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03898410202306377</v>
+        <v>0.03898410202306378</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2607291681884509</v>
+        <v>0.260729168188451</v>
       </c>
       <c r="H18" t="n">
         <v>2.518094861188461</v>
       </c>
       <c r="I18" t="n">
-        <v>8.976859518769036</v>
+        <v>8.976859518769038</v>
       </c>
       <c r="J18" t="n">
-        <v>24.6331886488922</v>
+        <v>24.63318864889221</v>
       </c>
       <c r="K18" t="n">
         <v>42.10204291751842</v>
       </c>
       <c r="L18" t="n">
-        <v>56.61139241740906</v>
+        <v>56.61139241740907</v>
       </c>
       <c r="M18" t="n">
-        <v>66.06282476424039</v>
+        <v>66.0628247642404</v>
       </c>
       <c r="N18" t="n">
-        <v>67.81131115967962</v>
+        <v>67.81131115967963</v>
       </c>
       <c r="O18" t="n">
-        <v>62.03410169613552</v>
+        <v>62.03410169613553</v>
       </c>
       <c r="P18" t="n">
-        <v>49.7878356341613</v>
+        <v>49.78783563416132</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.28184960945911</v>
+        <v>33.28184960945912</v>
       </c>
       <c r="R18" t="n">
         <v>16.18807940734962</v>
       </c>
       <c r="S18" t="n">
-        <v>4.842929944202145</v>
+        <v>4.842929944202146</v>
       </c>
       <c r="T18" t="n">
         <v>1.050921515636782</v>
@@ -32385,10 +32385,10 @@
         <v>0.2185865761487876</v>
       </c>
       <c r="H19" t="n">
-        <v>1.943433377031949</v>
+        <v>1.94343337703195</v>
       </c>
       <c r="I19" t="n">
-        <v>6.573494490001723</v>
+        <v>6.573494490001725</v>
       </c>
       <c r="J19" t="n">
         <v>15.45407093371928</v>
@@ -32397,7 +32397,7 @@
         <v>25.39578584710459</v>
       </c>
       <c r="L19" t="n">
-        <v>32.49786242124793</v>
+        <v>32.49786242124794</v>
       </c>
       <c r="M19" t="n">
         <v>34.26443938666858</v>
@@ -32406,25 +32406,25 @@
         <v>33.44970760284131</v>
       </c>
       <c r="O19" t="n">
-        <v>30.896218963285</v>
+        <v>30.89621896328501</v>
       </c>
       <c r="P19" t="n">
-        <v>26.43705280984971</v>
+        <v>26.43705280984972</v>
       </c>
       <c r="Q19" t="n">
         <v>18.30364502642257</v>
       </c>
       <c r="R19" t="n">
-        <v>9.828447323926392</v>
+        <v>9.828447323926394</v>
       </c>
       <c r="S19" t="n">
         <v>3.809367877065688</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9339608253630012</v>
+        <v>0.9339608253630014</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01192290415357024</v>
+        <v>0.01192290415357025</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4873012752882973</v>
+        <v>0.4873012752882974</v>
       </c>
       <c r="H20" t="n">
-        <v>4.990574185546276</v>
+        <v>4.990574185546277</v>
       </c>
       <c r="I20" t="n">
         <v>18.7866824155521</v>
       </c>
       <c r="J20" t="n">
-        <v>41.35908661350015</v>
+        <v>41.35908661350017</v>
       </c>
       <c r="K20" t="n">
-        <v>61.98654959645379</v>
+        <v>61.98654959645381</v>
       </c>
       <c r="L20" t="n">
-        <v>76.89979600005803</v>
+        <v>76.89979600005805</v>
       </c>
       <c r="M20" t="n">
-        <v>85.56584005446628</v>
+        <v>85.56584005446631</v>
       </c>
       <c r="N20" t="n">
-        <v>86.95038480287917</v>
+        <v>86.95038480287919</v>
       </c>
       <c r="O20" t="n">
-        <v>82.10478274673116</v>
+        <v>82.10478274673117</v>
       </c>
       <c r="P20" t="n">
-        <v>70.07453251305131</v>
+        <v>70.07453251305132</v>
       </c>
       <c r="Q20" t="n">
         <v>52.62305559178915</v>
@@ -32497,13 +32497,13 @@
         <v>30.61043873382853</v>
       </c>
       <c r="S20" t="n">
-        <v>11.10437781063208</v>
+        <v>11.10437781063209</v>
       </c>
       <c r="T20" t="n">
-        <v>2.133161332574522</v>
+        <v>2.133161332574523</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03898410202306377</v>
+        <v>0.03898410202306378</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2607291681884509</v>
+        <v>0.260729168188451</v>
       </c>
       <c r="H21" t="n">
         <v>2.518094861188461</v>
       </c>
       <c r="I21" t="n">
-        <v>8.976859518769036</v>
+        <v>8.976859518769038</v>
       </c>
       <c r="J21" t="n">
-        <v>24.6331886488922</v>
+        <v>24.63318864889221</v>
       </c>
       <c r="K21" t="n">
         <v>42.10204291751842</v>
       </c>
       <c r="L21" t="n">
-        <v>56.61139241740906</v>
+        <v>56.61139241740907</v>
       </c>
       <c r="M21" t="n">
-        <v>66.06282476424039</v>
+        <v>66.0628247642404</v>
       </c>
       <c r="N21" t="n">
-        <v>67.81131115967962</v>
+        <v>67.81131115967963</v>
       </c>
       <c r="O21" t="n">
-        <v>62.03410169613552</v>
+        <v>62.03410169613553</v>
       </c>
       <c r="P21" t="n">
-        <v>49.7878356341613</v>
+        <v>49.78783563416132</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.28184960945911</v>
+        <v>33.28184960945912</v>
       </c>
       <c r="R21" t="n">
         <v>16.18807940734962</v>
       </c>
       <c r="S21" t="n">
-        <v>4.842929944202145</v>
+        <v>4.842929944202146</v>
       </c>
       <c r="T21" t="n">
         <v>1.050921515636782</v>
@@ -32622,10 +32622,10 @@
         <v>0.2185865761487876</v>
       </c>
       <c r="H22" t="n">
-        <v>1.943433377031949</v>
+        <v>1.94343337703195</v>
       </c>
       <c r="I22" t="n">
-        <v>6.573494490001723</v>
+        <v>6.573494490001725</v>
       </c>
       <c r="J22" t="n">
         <v>15.45407093371928</v>
@@ -32634,7 +32634,7 @@
         <v>25.39578584710459</v>
       </c>
       <c r="L22" t="n">
-        <v>32.49786242124793</v>
+        <v>32.49786242124794</v>
       </c>
       <c r="M22" t="n">
         <v>34.26443938666858</v>
@@ -32643,25 +32643,25 @@
         <v>33.44970760284131</v>
       </c>
       <c r="O22" t="n">
-        <v>30.896218963285</v>
+        <v>30.89621896328501</v>
       </c>
       <c r="P22" t="n">
-        <v>26.43705280984971</v>
+        <v>26.43705280984972</v>
       </c>
       <c r="Q22" t="n">
         <v>18.30364502642257</v>
       </c>
       <c r="R22" t="n">
-        <v>9.828447323926392</v>
+        <v>9.828447323926394</v>
       </c>
       <c r="S22" t="n">
         <v>3.809367877065688</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9339608253630012</v>
+        <v>0.9339608253630014</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01192290415357024</v>
+        <v>0.01192290415357025</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4873012752882973</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H23" t="n">
-        <v>4.990574185546276</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I23" t="n">
-        <v>18.7866824155521</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J23" t="n">
-        <v>41.35908661350015</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K23" t="n">
-        <v>61.98654959645379</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L23" t="n">
-        <v>76.89979600005803</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M23" t="n">
-        <v>85.56584005446628</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N23" t="n">
-        <v>86.95038480287917</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O23" t="n">
-        <v>82.10478274673116</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P23" t="n">
-        <v>70.07453251305131</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.62305559178915</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R23" t="n">
-        <v>30.61043873382853</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S23" t="n">
-        <v>11.10437781063208</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T23" t="n">
-        <v>2.133161332574522</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03898410202306377</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2607291681884509</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H24" t="n">
-        <v>2.518094861188461</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I24" t="n">
-        <v>8.976859518769036</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J24" t="n">
-        <v>24.6331886488922</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K24" t="n">
-        <v>42.10204291751842</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L24" t="n">
-        <v>56.61139241740906</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M24" t="n">
-        <v>66.06282476424039</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N24" t="n">
-        <v>67.81131115967962</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O24" t="n">
-        <v>62.03410169613552</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P24" t="n">
-        <v>49.7878356341613</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.28184960945911</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R24" t="n">
-        <v>16.18807940734962</v>
+        <v>16.18807940734965</v>
       </c>
       <c r="S24" t="n">
-        <v>4.842929944202145</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T24" t="n">
-        <v>1.050921515636782</v>
+        <v>1.050921515636784</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0171532347492402</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2185865761487876</v>
+        <v>0.218586576148788</v>
       </c>
       <c r="H25" t="n">
-        <v>1.943433377031949</v>
+        <v>1.943433377031953</v>
       </c>
       <c r="I25" t="n">
-        <v>6.573494490001723</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J25" t="n">
-        <v>15.45407093371928</v>
+        <v>15.45407093371931</v>
       </c>
       <c r="K25" t="n">
-        <v>25.39578584710459</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L25" t="n">
-        <v>32.49786242124793</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M25" t="n">
-        <v>34.26443938666858</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N25" t="n">
-        <v>33.44970760284131</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O25" t="n">
-        <v>30.896218963285</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P25" t="n">
-        <v>26.43705280984971</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30364502642257</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R25" t="n">
-        <v>9.828447323926392</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S25" t="n">
-        <v>3.809367877065688</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9339608253630012</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01192290415357024</v>
+        <v>0.01192290415357027</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4873012752882975</v>
+        <v>0.4873012752882983</v>
       </c>
       <c r="H26" t="n">
-        <v>4.990574185546278</v>
+        <v>4.990574185546286</v>
       </c>
       <c r="I26" t="n">
-        <v>18.78668241555211</v>
+        <v>18.78668241555214</v>
       </c>
       <c r="J26" t="n">
-        <v>41.35908661350017</v>
+        <v>41.35908661350025</v>
       </c>
       <c r="K26" t="n">
-        <v>61.98654959645382</v>
+        <v>61.98654959645393</v>
       </c>
       <c r="L26" t="n">
-        <v>76.89979600005807</v>
+        <v>76.8997960000582</v>
       </c>
       <c r="M26" t="n">
-        <v>85.56584005446632</v>
+        <v>85.56584005446648</v>
       </c>
       <c r="N26" t="n">
-        <v>86.95038480287921</v>
+        <v>86.95038480287936</v>
       </c>
       <c r="O26" t="n">
-        <v>82.10478274673119</v>
+        <v>82.10478274673133</v>
       </c>
       <c r="P26" t="n">
-        <v>70.07453251305134</v>
+        <v>70.07453251305147</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.62305559178917</v>
+        <v>52.62305559178926</v>
       </c>
       <c r="R26" t="n">
-        <v>30.61043873382854</v>
+        <v>30.6104387338286</v>
       </c>
       <c r="S26" t="n">
-        <v>11.10437781063209</v>
+        <v>11.10437781063211</v>
       </c>
       <c r="T26" t="n">
-        <v>2.133161332574523</v>
+        <v>2.133161332574527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03898410202306379</v>
+        <v>0.03898410202306386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.260729168188451</v>
+        <v>0.2607291681884515</v>
       </c>
       <c r="H27" t="n">
-        <v>2.518094861188462</v>
+        <v>2.518094861188466</v>
       </c>
       <c r="I27" t="n">
-        <v>8.976859518769039</v>
+        <v>8.976859518769055</v>
       </c>
       <c r="J27" t="n">
-        <v>24.63318864889222</v>
+        <v>24.63318864889226</v>
       </c>
       <c r="K27" t="n">
-        <v>42.10204291751843</v>
+        <v>42.10204291751851</v>
       </c>
       <c r="L27" t="n">
-        <v>56.61139241740909</v>
+        <v>56.61139241740918</v>
       </c>
       <c r="M27" t="n">
-        <v>66.06282476424042</v>
+        <v>66.06282476424053</v>
       </c>
       <c r="N27" t="n">
-        <v>67.81131115967965</v>
+        <v>67.81131115967978</v>
       </c>
       <c r="O27" t="n">
-        <v>62.03410169613554</v>
+        <v>62.03410169613566</v>
       </c>
       <c r="P27" t="n">
-        <v>49.78783563416133</v>
+        <v>49.78783563416142</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.28184960945912</v>
+        <v>33.28184960945918</v>
       </c>
       <c r="R27" t="n">
-        <v>16.18807940734963</v>
+        <v>16.18807940734965</v>
       </c>
       <c r="S27" t="n">
-        <v>4.842929944202147</v>
+        <v>4.842929944202155</v>
       </c>
       <c r="T27" t="n">
-        <v>1.050921515636783</v>
+        <v>1.050921515636784</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01715323474924021</v>
+        <v>0.01715323474924024</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2185865761487877</v>
+        <v>0.218586576148788</v>
       </c>
       <c r="H28" t="n">
-        <v>1.94343337703195</v>
+        <v>1.943433377031953</v>
       </c>
       <c r="I28" t="n">
-        <v>6.573494490001726</v>
+        <v>6.573494490001737</v>
       </c>
       <c r="J28" t="n">
-        <v>15.45407093371929</v>
+        <v>15.45407093371931</v>
       </c>
       <c r="K28" t="n">
-        <v>25.3957858471046</v>
+        <v>25.39578584710464</v>
       </c>
       <c r="L28" t="n">
-        <v>32.49786242124794</v>
+        <v>32.497862421248</v>
       </c>
       <c r="M28" t="n">
-        <v>34.26443938666859</v>
+        <v>34.26443938666866</v>
       </c>
       <c r="N28" t="n">
-        <v>33.44970760284132</v>
+        <v>33.44970760284138</v>
       </c>
       <c r="O28" t="n">
-        <v>30.89621896328502</v>
+        <v>30.89621896328507</v>
       </c>
       <c r="P28" t="n">
-        <v>26.43705280984973</v>
+        <v>26.43705280984977</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.30364502642258</v>
+        <v>18.30364502642261</v>
       </c>
       <c r="R28" t="n">
-        <v>9.828447323926396</v>
+        <v>9.828447323926413</v>
       </c>
       <c r="S28" t="n">
-        <v>3.809367877065689</v>
+        <v>3.809367877065696</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9339608253630016</v>
+        <v>0.9339608253630033</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01192290415357025</v>
+        <v>0.01192290415357027</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H29" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I29" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J29" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K29" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L29" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M29" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N29" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O29" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P29" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R29" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S29" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T29" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H30" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I30" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J30" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K30" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L30" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M30" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N30" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O30" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P30" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R30" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S30" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T30" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,40 +33336,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I31" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J31" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K31" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L31" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M31" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N31" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O31" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P31" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R31" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S31" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U31" t="n">
         <v>0.01192290415357027</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H32" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I32" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J32" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K32" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L32" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M32" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N32" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O32" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P32" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R32" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S32" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T32" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H33" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I33" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J33" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K33" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L33" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M33" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N33" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O33" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P33" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R33" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S33" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T33" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,40 +33573,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I34" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J34" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K34" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L34" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M34" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N34" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O34" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P34" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R34" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S34" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U34" t="n">
         <v>0.01192290415357027</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H35" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I35" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J35" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K35" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L35" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M35" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N35" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O35" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P35" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R35" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S35" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T35" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H36" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I36" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J36" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K36" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L36" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M36" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N36" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O36" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P36" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R36" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S36" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T36" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,40 +33810,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I37" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J37" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K37" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L37" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M37" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N37" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O37" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P37" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R37" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S37" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U37" t="n">
         <v>0.01192290415357027</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H38" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I38" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J38" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K38" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L38" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M38" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N38" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O38" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P38" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R38" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S38" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T38" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H39" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I39" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J39" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K39" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L39" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M39" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N39" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O39" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P39" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R39" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S39" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T39" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,40 +34047,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I40" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J40" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K40" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L40" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M40" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N40" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O40" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P40" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R40" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S40" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U40" t="n">
         <v>0.01192290415357027</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H41" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I41" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J41" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K41" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L41" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M41" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N41" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O41" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P41" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R41" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S41" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T41" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H42" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I42" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J42" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K42" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L42" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M42" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N42" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O42" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P42" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R42" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S42" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T42" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,40 +34284,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I43" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J43" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K43" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L43" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M43" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N43" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O43" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P43" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R43" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S43" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U43" t="n">
         <v>0.01192290415357027</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4873012752882983</v>
+        <v>0.4873012752882981</v>
       </c>
       <c r="H44" t="n">
-        <v>4.990574185546286</v>
+        <v>4.990574185546285</v>
       </c>
       <c r="I44" t="n">
-        <v>18.78668241555214</v>
+        <v>18.78668241555213</v>
       </c>
       <c r="J44" t="n">
-        <v>41.35908661350025</v>
+        <v>41.35908661350023</v>
       </c>
       <c r="K44" t="n">
-        <v>61.98654959645393</v>
+        <v>61.98654959645391</v>
       </c>
       <c r="L44" t="n">
-        <v>76.8997960000582</v>
+        <v>76.89979600005817</v>
       </c>
       <c r="M44" t="n">
-        <v>85.56584005446648</v>
+        <v>85.56584005446645</v>
       </c>
       <c r="N44" t="n">
-        <v>86.95038480287936</v>
+        <v>86.95038480287933</v>
       </c>
       <c r="O44" t="n">
-        <v>82.10478274673133</v>
+        <v>82.1047827467313</v>
       </c>
       <c r="P44" t="n">
-        <v>70.07453251305147</v>
+        <v>70.07453251305144</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.62305559178926</v>
+        <v>52.62305559178925</v>
       </c>
       <c r="R44" t="n">
-        <v>30.6104387338286</v>
+        <v>30.61043873382859</v>
       </c>
       <c r="S44" t="n">
-        <v>11.10437781063211</v>
+        <v>11.1043778106321</v>
       </c>
       <c r="T44" t="n">
-        <v>2.133161332574527</v>
+        <v>2.133161332574526</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03898410202306386</v>
+        <v>0.03898410202306384</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2607291681884515</v>
+        <v>0.2607291681884514</v>
       </c>
       <c r="H45" t="n">
-        <v>2.518094861188466</v>
+        <v>2.518094861188465</v>
       </c>
       <c r="I45" t="n">
-        <v>8.976859518769055</v>
+        <v>8.976859518769052</v>
       </c>
       <c r="J45" t="n">
-        <v>24.63318864889226</v>
+        <v>24.63318864889225</v>
       </c>
       <c r="K45" t="n">
-        <v>42.10204291751851</v>
+        <v>42.1020429175185</v>
       </c>
       <c r="L45" t="n">
-        <v>56.61139241740918</v>
+        <v>56.61139241740916</v>
       </c>
       <c r="M45" t="n">
-        <v>66.06282476424053</v>
+        <v>66.06282476424052</v>
       </c>
       <c r="N45" t="n">
-        <v>67.81131115967978</v>
+        <v>67.81131115967975</v>
       </c>
       <c r="O45" t="n">
-        <v>62.03410169613566</v>
+        <v>62.03410169613563</v>
       </c>
       <c r="P45" t="n">
-        <v>49.78783563416142</v>
+        <v>49.7878356341614</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.28184960945918</v>
+        <v>33.28184960945917</v>
       </c>
       <c r="R45" t="n">
         <v>16.18807940734965</v>
       </c>
       <c r="S45" t="n">
-        <v>4.842929944202155</v>
+        <v>4.842929944202154</v>
       </c>
       <c r="T45" t="n">
         <v>1.050921515636784</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01715323474924024</v>
+        <v>0.01715323474924023</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,40 +34521,40 @@
         <v>1.943433377031953</v>
       </c>
       <c r="I46" t="n">
-        <v>6.573494490001737</v>
+        <v>6.573494490001735</v>
       </c>
       <c r="J46" t="n">
         <v>15.45407093371931</v>
       </c>
       <c r="K46" t="n">
-        <v>25.39578584710464</v>
+        <v>25.39578584710463</v>
       </c>
       <c r="L46" t="n">
-        <v>32.497862421248</v>
+        <v>32.49786242124799</v>
       </c>
       <c r="M46" t="n">
-        <v>34.26443938666866</v>
+        <v>34.26443938666864</v>
       </c>
       <c r="N46" t="n">
-        <v>33.44970760284138</v>
+        <v>33.44970760284137</v>
       </c>
       <c r="O46" t="n">
-        <v>30.89621896328507</v>
+        <v>30.89621896328506</v>
       </c>
       <c r="P46" t="n">
-        <v>26.43705280984977</v>
+        <v>26.43705280984976</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30364502642261</v>
+        <v>18.3036450264226</v>
       </c>
       <c r="R46" t="n">
-        <v>9.828447323926413</v>
+        <v>9.82844732392641</v>
       </c>
       <c r="S46" t="n">
-        <v>3.809367877065696</v>
+        <v>3.809367877065695</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9339608253630033</v>
+        <v>0.933960825363003</v>
       </c>
       <c r="U46" t="n">
         <v>0.01192290415357027</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O8" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="P8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L9" t="n">
         <v>11.94294668035388</v>
@@ -35261,10 +35261,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="O10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0848889092634</v>
+        <v>114.0848889092632</v>
       </c>
       <c r="K11" t="n">
-        <v>304.5525819649212</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L11" t="n">
         <v>428.299162752529</v>
       </c>
       <c r="M11" t="n">
-        <v>482.7771190979894</v>
+        <v>482.7771190979895</v>
       </c>
       <c r="N11" t="n">
-        <v>469.1032723662284</v>
+        <v>469.1032723662285</v>
       </c>
       <c r="O11" t="n">
         <v>390.1902216081796</v>
@@ -35428,7 +35428,7 @@
         <v>300.5360440848223</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.0091704266761</v>
+        <v>148.009170426675</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.49596292475699</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>273.9106818672039</v>
@@ -35495,19 +35495,19 @@
         <v>426.1284077407582</v>
       </c>
       <c r="M12" t="n">
-        <v>133.9900314220451</v>
+        <v>555.9955050776005</v>
       </c>
       <c r="N12" t="n">
-        <v>584.2412567385908</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O12" t="n">
         <v>458.1956681447728</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9352288419363</v>
+        <v>211.0728503323075</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6471322211704</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.54091834339409</v>
+        <v>59.54091834339408</v>
       </c>
       <c r="K13" t="n">
         <v>162.8829234412367</v>
@@ -35577,7 +35577,7 @@
         <v>256.9933127211626</v>
       </c>
       <c r="N13" t="n">
-        <v>256.6117482322835</v>
+        <v>256.6117482322834</v>
       </c>
       <c r="O13" t="n">
         <v>233.8979613564537</v>
@@ -35586,7 +35586,7 @@
         <v>193.5850954378145</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.69519070321853</v>
+        <v>83.69519070321851</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0848889092634</v>
+        <v>114.0848889092635</v>
       </c>
       <c r="K14" t="n">
         <v>304.5525819649212</v>
@@ -35653,13 +35653,13 @@
         <v>428.299162752529</v>
       </c>
       <c r="M14" t="n">
-        <v>482.7771190979894</v>
+        <v>482.7771190979895</v>
       </c>
       <c r="N14" t="n">
         <v>469.1032723662284</v>
       </c>
       <c r="O14" t="n">
-        <v>390.1902216081807</v>
+        <v>390.1902216081796</v>
       </c>
       <c r="P14" t="n">
         <v>300.5360440848223</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.49596292475701</v>
       </c>
       <c r="K15" t="n">
         <v>273.9106818672039</v>
@@ -35735,16 +35735,16 @@
         <v>555.9955050776005</v>
       </c>
       <c r="N15" t="n">
-        <v>584.2412567385908</v>
+        <v>162.2357830830348</v>
       </c>
       <c r="O15" t="n">
         <v>458.1956681447728</v>
       </c>
       <c r="P15" t="n">
-        <v>18.42571811113766</v>
+        <v>354.9352288419363</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.6471322211704</v>
+        <v>192.6471322211705</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.54091834339408</v>
+        <v>59.5409183433941</v>
       </c>
       <c r="K16" t="n">
         <v>162.8829234412367</v>
@@ -35814,7 +35814,7 @@
         <v>256.9933127211626</v>
       </c>
       <c r="N16" t="n">
-        <v>256.6117482322834</v>
+        <v>256.6117482322835</v>
       </c>
       <c r="O16" t="n">
         <v>233.8979613564537</v>
@@ -35823,7 +35823,7 @@
         <v>193.5850954378145</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.69519070321851</v>
+        <v>83.69519070321853</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.0848889092644</v>
+        <v>114.0848889092635</v>
       </c>
       <c r="K17" t="n">
         <v>304.5525819649212</v>
@@ -35972,7 +35972,7 @@
         <v>555.9955050776005</v>
       </c>
       <c r="N18" t="n">
-        <v>247.7317460077924</v>
+        <v>247.731746007792</v>
       </c>
       <c r="O18" t="n">
         <v>458.1956681447728</v>
@@ -35981,7 +35981,7 @@
         <v>354.9352288419363</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.6471322211704</v>
+        <v>192.6471322211705</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0848889092634</v>
+        <v>114.0848889092633</v>
       </c>
       <c r="K20" t="n">
         <v>304.5525819649212</v>
@@ -36127,7 +36127,7 @@
         <v>428.299162752529</v>
       </c>
       <c r="M20" t="n">
-        <v>482.7771190979894</v>
+        <v>482.7771190979895</v>
       </c>
       <c r="N20" t="n">
         <v>469.1032723662284</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.49596292475699</v>
+        <v>85.49596292475701</v>
       </c>
       <c r="K21" t="n">
         <v>273.9106818672039</v>
@@ -36209,7 +36209,7 @@
         <v>555.9955050776005</v>
       </c>
       <c r="N21" t="n">
-        <v>354.8829153042051</v>
+        <v>162.2357830830348</v>
       </c>
       <c r="O21" t="n">
         <v>458.1956681447728</v>
@@ -36218,7 +36218,7 @@
         <v>354.9352288419363</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>192.6471322211705</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0848889092634</v>
+        <v>114.0848889092635</v>
       </c>
       <c r="K23" t="n">
-        <v>304.5525819649212</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L23" t="n">
-        <v>428.299162752529</v>
+        <v>428.2991627525291</v>
       </c>
       <c r="M23" t="n">
-        <v>482.7771190979894</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N23" t="n">
-        <v>469.1032723662284</v>
+        <v>469.1032723662286</v>
       </c>
       <c r="O23" t="n">
-        <v>390.1902216081796</v>
+        <v>390.1902216081797</v>
       </c>
       <c r="P23" t="n">
-        <v>300.5360440848223</v>
+        <v>300.5360440848224</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.009170426675</v>
+        <v>148.0091704266751</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.49596292475699</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>273.9106818672039</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>426.1284077407582</v>
+        <v>426.1284077407583</v>
       </c>
       <c r="M24" t="n">
-        <v>555.9955050776005</v>
+        <v>555.9955050776006</v>
       </c>
       <c r="N24" t="n">
-        <v>354.8829153042051</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O24" t="n">
-        <v>458.1956681447728</v>
+        <v>458.1956681447729</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9352288419363</v>
+        <v>354.9352288419364</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>130.0483033575751</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.33940983159289</v>
+        <v>59.33940983159293</v>
       </c>
       <c r="L25" t="n">
         <v>134.1211749467626</v>
       </c>
       <c r="M25" t="n">
-        <v>153.4497991115188</v>
+        <v>153.4497991115189</v>
       </c>
       <c r="N25" t="n">
         <v>153.0682346226397</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3544477468099</v>
+        <v>130.35444774681</v>
       </c>
       <c r="P25" t="n">
-        <v>90.04158182817072</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>114.0848889092635</v>
       </c>
       <c r="K26" t="n">
-        <v>304.5525819649213</v>
+        <v>304.5525819649214</v>
       </c>
       <c r="L26" t="n">
-        <v>428.299162752529</v>
+        <v>531.8426763621729</v>
       </c>
       <c r="M26" t="n">
-        <v>482.7771190979895</v>
+        <v>482.7771190979897</v>
       </c>
       <c r="N26" t="n">
-        <v>568.3465888075073</v>
+        <v>572.6467859758724</v>
       </c>
       <c r="O26" t="n">
-        <v>493.7337352178234</v>
+        <v>390.1902216081797</v>
       </c>
       <c r="P26" t="n">
-        <v>404.0795576944661</v>
+        <v>300.5360440848224</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.009170426675</v>
+        <v>251.5526840363189</v>
       </c>
       <c r="R26" t="n">
-        <v>44.42204870436719</v>
+        <v>40.12185153600044</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>85.49596292475701</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>273.9106818672039</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>426.1284077407582</v>
+        <v>426.1284077407583</v>
       </c>
       <c r="M27" t="n">
-        <v>555.9955050776005</v>
+        <v>555.9955050776006</v>
       </c>
       <c r="N27" t="n">
-        <v>354.8829153042051</v>
+        <v>584.241256738591</v>
       </c>
       <c r="O27" t="n">
-        <v>458.1956681447728</v>
+        <v>458.1956681447729</v>
       </c>
       <c r="P27" t="n">
         <v>354.9352288419364</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>130.0483033575751</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54091834339411</v>
+        <v>59.54091834339413</v>
       </c>
       <c r="K28" t="n">
         <v>162.8829234412367</v>
       </c>
       <c r="L28" t="n">
-        <v>237.6646885564064</v>
+        <v>237.6646885564065</v>
       </c>
       <c r="M28" t="n">
-        <v>256.9933127211626</v>
+        <v>256.9933127211627</v>
       </c>
       <c r="N28" t="n">
-        <v>256.6117482322835</v>
+        <v>256.6117482322836</v>
       </c>
       <c r="O28" t="n">
-        <v>233.8979613564537</v>
+        <v>233.8979613564538</v>
       </c>
       <c r="P28" t="n">
-        <v>193.5850954378145</v>
+        <v>193.5850954378146</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.69519070321854</v>
+        <v>83.69519070321857</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0848889092635</v>
+        <v>217.6284025189073</v>
       </c>
       <c r="K29" t="n">
-        <v>304.5525819649214</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L29" t="n">
         <v>531.8426763621729</v>
       </c>
       <c r="M29" t="n">
-        <v>586.3206327076334</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N29" t="n">
-        <v>572.6467859758724</v>
+        <v>469.1032723662286</v>
       </c>
       <c r="O29" t="n">
-        <v>430.3120731441811</v>
+        <v>390.1902216081797</v>
       </c>
       <c r="P29" t="n">
         <v>300.5360440848224</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.0091704266751</v>
+        <v>251.5526840363189</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.12185153600044</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>85.49596292475705</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9106818672041</v>
+        <v>273.910681867204</v>
       </c>
       <c r="L30" t="n">
         <v>426.1284077407583</v>
       </c>
       <c r="M30" t="n">
-        <v>555.9955050776006</v>
+        <v>219.4859943468013</v>
       </c>
       <c r="N30" t="n">
-        <v>162.2357830830346</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O30" t="n">
         <v>458.1956681447729</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.54091834339413</v>
+        <v>59.54091834339412</v>
       </c>
       <c r="K31" t="n">
         <v>162.8829234412367</v>
       </c>
       <c r="L31" t="n">
-        <v>237.6646885564065</v>
+        <v>237.6646885564064</v>
       </c>
       <c r="M31" t="n">
         <v>256.9933127211627</v>
@@ -37008,7 +37008,7 @@
         <v>193.5850954378146</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.69519070321857</v>
+        <v>83.69519070321856</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>144.1081432119643</v>
+        <v>114.0848889092635</v>
       </c>
       <c r="K32" t="n">
-        <v>441.2725292854378</v>
+        <v>334.5758362676212</v>
       </c>
       <c r="L32" t="n">
-        <v>565.0191100730456</v>
+        <v>428.2991627525291</v>
       </c>
       <c r="M32" t="n">
-        <v>482.7771190979897</v>
+        <v>619.4970664185061</v>
       </c>
       <c r="N32" t="n">
-        <v>469.1032723662286</v>
+        <v>605.8232196867449</v>
       </c>
       <c r="O32" t="n">
         <v>390.1902216081797</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.49596292475705</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>273.9106818672041</v>
+        <v>130.0483033575752</v>
       </c>
       <c r="L33" t="n">
         <v>426.1284077407583</v>
@@ -37157,7 +37157,7 @@
         <v>555.9955050776006</v>
       </c>
       <c r="N33" t="n">
-        <v>162.2357830830346</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O33" t="n">
         <v>458.1956681447729</v>
@@ -37166,7 +37166,7 @@
         <v>354.9352288419364</v>
       </c>
       <c r="Q33" t="n">
-        <v>192.6471322211705</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37221,16 +37221,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.532427857169866</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>165.3749913657243</v>
+        <v>146.059096316468</v>
       </c>
       <c r="L34" t="n">
-        <v>134.1211749467627</v>
+        <v>270.8411222672791</v>
       </c>
       <c r="M34" t="n">
         <v>153.4497991115189</v>
@@ -37242,10 +37242,10 @@
         <v>130.35444774681</v>
       </c>
       <c r="P34" t="n">
-        <v>90.04158182817078</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q34" t="n">
-        <v>116.8716244140911</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>114.0848889092635</v>
       </c>
       <c r="K35" t="n">
-        <v>304.5525819649214</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L35" t="n">
         <v>428.2991627525291</v>
       </c>
       <c r="M35" t="n">
-        <v>482.7771190979897</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N35" t="n">
         <v>469.1032723662286</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.49596292475705</v>
+        <v>85.49596292475704</v>
       </c>
       <c r="K36" t="n">
-        <v>273.9106818672041</v>
+        <v>273.910681867204</v>
       </c>
       <c r="L36" t="n">
         <v>426.1284077407583</v>
@@ -37394,16 +37394,16 @@
         <v>555.9955050776006</v>
       </c>
       <c r="N36" t="n">
-        <v>354.8829153042045</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O36" t="n">
-        <v>458.1956681447729</v>
+        <v>36.19019448921648</v>
       </c>
       <c r="P36" t="n">
         <v>354.9352288419364</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>192.6471322211705</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.33940983159295</v>
+        <v>59.33940983159293</v>
       </c>
       <c r="L37" t="n">
-        <v>134.1211749467627</v>
+        <v>134.1211749467626</v>
       </c>
       <c r="M37" t="n">
         <v>153.4497991115189</v>
@@ -37479,7 +37479,7 @@
         <v>130.35444774681</v>
       </c>
       <c r="P37" t="n">
-        <v>90.04158182817078</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>114.0848889092635</v>
       </c>
       <c r="K38" t="n">
-        <v>304.5525819649214</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L38" t="n">
         <v>428.2991627525291</v>
       </c>
       <c r="M38" t="n">
-        <v>482.7771190979897</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N38" t="n">
-        <v>469.1032723662286</v>
+        <v>469.1032723662282</v>
       </c>
       <c r="O38" t="n">
         <v>390.1902216081797</v>
@@ -37561,7 +37561,7 @@
         <v>300.5360440848224</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.0091704266752</v>
+        <v>148.0091704266751</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.49596292475705</v>
+        <v>85.49596292475704</v>
       </c>
       <c r="K39" t="n">
-        <v>273.9106818672041</v>
+        <v>273.910681867204</v>
       </c>
       <c r="L39" t="n">
         <v>426.1284077407583</v>
       </c>
       <c r="M39" t="n">
-        <v>555.9955050776006</v>
+        <v>133.9900314220441</v>
       </c>
       <c r="N39" t="n">
-        <v>162.2357830830341</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O39" t="n">
         <v>458.1956681447729</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.33940983159295</v>
+        <v>59.33940983159293</v>
       </c>
       <c r="L40" t="n">
-        <v>134.1211749467627</v>
+        <v>134.1211749467626</v>
       </c>
       <c r="M40" t="n">
         <v>153.4497991115189</v>
@@ -37716,7 +37716,7 @@
         <v>130.35444774681</v>
       </c>
       <c r="P40" t="n">
-        <v>90.04158182817078</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>114.0848889092635</v>
       </c>
       <c r="K41" t="n">
-        <v>304.5525819649214</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L41" t="n">
         <v>428.2991627525291</v>
       </c>
       <c r="M41" t="n">
-        <v>482.7771190979897</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N41" t="n">
         <v>469.1032723662286</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.49596292475705</v>
+        <v>85.49596292475704</v>
       </c>
       <c r="K42" t="n">
-        <v>273.9106818672041</v>
+        <v>273.910681867204</v>
       </c>
       <c r="L42" t="n">
-        <v>359.0581629271379</v>
+        <v>426.1284077407583</v>
       </c>
       <c r="M42" t="n">
         <v>555.9955050776006</v>
       </c>
       <c r="N42" t="n">
-        <v>584.241256738591</v>
+        <v>162.2357830830344</v>
       </c>
       <c r="O42" t="n">
         <v>458.1956681447729</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>354.9352288419364</v>
       </c>
       <c r="Q42" t="n">
         <v>192.6471322211705</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.33940983159295</v>
+        <v>59.33940983159293</v>
       </c>
       <c r="L43" t="n">
-        <v>134.1211749467627</v>
+        <v>134.1211749467626</v>
       </c>
       <c r="M43" t="n">
         <v>153.4497991115189</v>
@@ -37953,7 +37953,7 @@
         <v>130.35444774681</v>
       </c>
       <c r="P43" t="n">
-        <v>90.04158182817078</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>114.0848889092635</v>
       </c>
       <c r="K44" t="n">
-        <v>304.5525819649214</v>
+        <v>304.5525819649213</v>
       </c>
       <c r="L44" t="n">
         <v>428.2991627525291</v>
       </c>
       <c r="M44" t="n">
-        <v>482.7771190979897</v>
+        <v>482.7771190979896</v>
       </c>
       <c r="N44" t="n">
         <v>469.1032723662286</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>273.9106818672041</v>
+        <v>130.0483033575748</v>
       </c>
       <c r="L45" t="n">
         <v>426.1284077407583</v>
@@ -38105,13 +38105,13 @@
         <v>555.9955050776006</v>
       </c>
       <c r="N45" t="n">
-        <v>584.241256738591</v>
+        <v>584.2412567385909</v>
       </c>
       <c r="O45" t="n">
         <v>458.1956681447729</v>
       </c>
       <c r="P45" t="n">
-        <v>211.072850332307</v>
+        <v>354.9352288419364</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.33940983159295</v>
+        <v>59.33940983159293</v>
       </c>
       <c r="L46" t="n">
-        <v>134.1211749467627</v>
+        <v>134.1211749467626</v>
       </c>
       <c r="M46" t="n">
         <v>153.4497991115189</v>
@@ -38190,7 +38190,7 @@
         <v>130.35444774681</v>
       </c>
       <c r="P46" t="n">
-        <v>90.04158182817078</v>
+        <v>90.04158182817076</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
